--- a/cluster algorithm/Results_clusters=3/Solar_Final.xlsx
+++ b/cluster algorithm/Results_clusters=3/Solar_Final.xlsx
@@ -478,16 +478,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0005235938878047618</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0005235938878047618</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0005235938878047618</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0005235938878047618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -495,16 +495,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01321117209981708</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01321117209981708</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01321117209981708</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01321117209981708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -512,16 +512,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0703412897270847</v>
+        <v>0.000166085499350076</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0703412897270847</v>
+        <v>0.000166085499350076</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0703412897270847</v>
+        <v>0.000166085499350076</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0703412897270847</v>
+        <v>0.000166085499350076</v>
       </c>
     </row>
     <row r="9">
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1827879484173019</v>
+        <v>0.013891186763063</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1827879484173019</v>
+        <v>0.013891186763063</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1827879484173019</v>
+        <v>0.013891186763063</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1827879484173019</v>
+        <v>0.013891186763063</v>
       </c>
     </row>
     <row r="10">
@@ -546,16 +546,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3208623791534416</v>
+        <v>0.0576971598580525</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3208623791534416</v>
+        <v>0.0576971598580525</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3208623791534416</v>
+        <v>0.0576971598580525</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3208623791534416</v>
+        <v>0.0576971598580525</v>
       </c>
     </row>
     <row r="11">
@@ -563,16 +563,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3802013207259086</v>
+        <v>0.12572790644991</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3802013207259086</v>
+        <v>0.12572790644991</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3802013207259086</v>
+        <v>0.12572790644991</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3802013207259086</v>
+        <v>0.12572790644991</v>
       </c>
     </row>
     <row r="12">
@@ -580,16 +580,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4446438809120619</v>
+        <v>0.175353804195346</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4446438809120619</v>
+        <v>0.175353804195346</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4446438809120619</v>
+        <v>0.175353804195346</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4446438809120619</v>
+        <v>0.175353804195346</v>
       </c>
     </row>
     <row r="13">
@@ -597,16 +597,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4258751644208142</v>
+        <v>0.19004156109905</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4258751644208142</v>
+        <v>0.19004156109905</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4258751644208142</v>
+        <v>0.19004156109905</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4258751644208142</v>
+        <v>0.19004156109905</v>
       </c>
     </row>
     <row r="14">
@@ -614,16 +614,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4166699317328209</v>
+        <v>0.197237542499307</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4166699317328209</v>
+        <v>0.197237542499307</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4166699317328209</v>
+        <v>0.197237542499307</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4166699317328209</v>
+        <v>0.197237542499307</v>
       </c>
     </row>
     <row r="15">
@@ -631,16 +631,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.439775547275801</v>
+        <v>0.142962610187015</v>
       </c>
       <c r="C15" t="n">
-        <v>0.439775547275801</v>
+        <v>0.142962610187015</v>
       </c>
       <c r="D15" t="n">
-        <v>0.439775547275801</v>
+        <v>0.142962610187015</v>
       </c>
       <c r="E15" t="n">
-        <v>0.439775547275801</v>
+        <v>0.142962610187015</v>
       </c>
     </row>
     <row r="16">
@@ -648,16 +648,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.405576529118075</v>
+        <v>0.109470278016207</v>
       </c>
       <c r="C16" t="n">
-        <v>0.405576529118075</v>
+        <v>0.109470278016207</v>
       </c>
       <c r="D16" t="n">
-        <v>0.405576529118075</v>
+        <v>0.109470278016207</v>
       </c>
       <c r="E16" t="n">
-        <v>0.405576529118075</v>
+        <v>0.109470278016207</v>
       </c>
     </row>
     <row r="17">
@@ -665,16 +665,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2709294855713656</v>
+        <v>0.0518923370441716</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2709294855713656</v>
+        <v>0.0518923370441716</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2709294855713656</v>
+        <v>0.0518923370441716</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2709294855713656</v>
+        <v>0.0518923370441716</v>
       </c>
     </row>
     <row r="18">
@@ -682,16 +682,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1894368108874916</v>
+        <v>0.009025896350165021</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1894368108874916</v>
+        <v>0.009025896350165021</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1894368108874916</v>
+        <v>0.009025896350165021</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1894368108874916</v>
+        <v>0.009025896350165021</v>
       </c>
     </row>
     <row r="19">
@@ -699,16 +699,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.08042552004084662</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.08042552004084662</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.08042552004084662</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.08042552004084662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -716,16 +716,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.020994352038571</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.020994352038571</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.020994352038571</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.020994352038571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -733,16 +733,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.001885841778428801</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001885841778428801</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.001885841778428801</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.001885841778428801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -886,16 +886,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.001753554842480468</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.001753554842480468</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.001753554842480468</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.001753554842480468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -903,16 +903,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.01497197450229905</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01497197450229905</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.01497197450229905</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.01497197450229905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -920,16 +920,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.06901697955642268</v>
+        <v>0.000159501152968656</v>
       </c>
       <c r="C32" t="n">
-        <v>0.06901697955642268</v>
+        <v>0.000159501152968656</v>
       </c>
       <c r="D32" t="n">
-        <v>0.06901697955642268</v>
+        <v>0.000159501152968656</v>
       </c>
       <c r="E32" t="n">
-        <v>0.06901697955642268</v>
+        <v>0.000159501152968656</v>
       </c>
     </row>
     <row r="33">
@@ -937,16 +937,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1727679928821176</v>
+        <v>0.0107244554848008</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1727679928821176</v>
+        <v>0.0107244554848008</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1727679928821176</v>
+        <v>0.0107244554848008</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1727679928821176</v>
+        <v>0.0107244554848008</v>
       </c>
     </row>
     <row r="34">
@@ -954,16 +954,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.3106101074002246</v>
+        <v>0.0531038288570433</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3106101074002246</v>
+        <v>0.0531038288570433</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3106101074002246</v>
+        <v>0.0531038288570433</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3106101074002246</v>
+        <v>0.0531038288570433</v>
       </c>
     </row>
     <row r="35">
@@ -971,16 +971,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.3977795749722677</v>
+        <v>0.141293692850717</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3977795749722677</v>
+        <v>0.141293692850717</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3977795749722677</v>
+        <v>0.141293692850717</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3977795749722677</v>
+        <v>0.141293692850717</v>
       </c>
     </row>
     <row r="36">
@@ -988,16 +988,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.4522231898897819</v>
+        <v>0.213740087957181</v>
       </c>
       <c r="C36" t="n">
-        <v>0.4522231898897819</v>
+        <v>0.213740087957181</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4522231898897819</v>
+        <v>0.213740087957181</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4522231898897819</v>
+        <v>0.213740087957181</v>
       </c>
     </row>
     <row r="37">
@@ -1005,16 +1005,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.4580391914243905</v>
+        <v>0.244280135582419</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4580391914243905</v>
+        <v>0.244280135582419</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4580391914243905</v>
+        <v>0.244280135582419</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4580391914243905</v>
+        <v>0.244280135582419</v>
       </c>
     </row>
     <row r="38">
@@ -1022,16 +1022,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.4678857041619737</v>
+        <v>0.242103433923985</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4678857041619737</v>
+        <v>0.242103433923985</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4678857041619737</v>
+        <v>0.242103433923985</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4678857041619737</v>
+        <v>0.242103433923985</v>
       </c>
     </row>
     <row r="39">
@@ -1039,16 +1039,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.4142838425467973</v>
+        <v>0.208669874389667</v>
       </c>
       <c r="C39" t="n">
-        <v>0.4142838425467973</v>
+        <v>0.208669874389667</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4142838425467973</v>
+        <v>0.208669874389667</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4142838425467973</v>
+        <v>0.208669874389667</v>
       </c>
     </row>
     <row r="40">
@@ -1056,16 +1056,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.3586295698013306</v>
+        <v>0.139239989852419</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3586295698013306</v>
+        <v>0.139239989852419</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3586295698013306</v>
+        <v>0.139239989852419</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3586295698013306</v>
+        <v>0.139239989852419</v>
       </c>
     </row>
     <row r="41">
@@ -1073,16 +1073,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.2969072135096447</v>
+        <v>0.0630632256727905</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2969072135096447</v>
+        <v>0.0630632256727905</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2969072135096447</v>
+        <v>0.0630632256727905</v>
       </c>
       <c r="E41" t="n">
-        <v>0.2969072135096447</v>
+        <v>0.0630632256727905</v>
       </c>
     </row>
     <row r="42">
@@ -1090,16 +1090,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1782626926857711</v>
+        <v>0.009807323168950791</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1782626926857711</v>
+        <v>0.009807323168950791</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1782626926857711</v>
+        <v>0.009807323168950791</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1782626926857711</v>
+        <v>0.009807323168950791</v>
       </c>
     </row>
     <row r="43">
@@ -1107,16 +1107,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.08295599510424329</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.08295599510424329</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.08295599510424329</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.08295599510424329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1124,16 +1124,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.01794242304642995</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.01794242304642995</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.01794242304642995</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.01794242304642995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1141,16 +1141,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.001436888906775417</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0.001436888906775417</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.001436888906775417</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001436888906775417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1294,16 +1294,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.001348156512917121</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>0.001348156512917121</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0.001348156512917121</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001348156512917121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1311,16 +1311,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.01508939519675092</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>0.01508939519675092</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>0.01508939519675092</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0.01508939519675092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1328,16 +1328,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.08051751242387636</v>
+        <v>0.000152967374689526</v>
       </c>
       <c r="C56" t="n">
-        <v>0.08051751242387636</v>
+        <v>0.000152967374689526</v>
       </c>
       <c r="D56" t="n">
-        <v>0.08051751242387636</v>
+        <v>0.000152967374689526</v>
       </c>
       <c r="E56" t="n">
-        <v>0.08051751242387636</v>
+        <v>0.000152967374689526</v>
       </c>
     </row>
     <row r="57">
@@ -1345,16 +1345,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1695118646551612</v>
+        <v>0.0144293642177025</v>
       </c>
       <c r="C57" t="n">
-        <v>0.1695118646551612</v>
+        <v>0.0144293642177025</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1695118646551612</v>
+        <v>0.0144293642177025</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1695118646551612</v>
+        <v>0.0144293642177025</v>
       </c>
     </row>
     <row r="58">
@@ -1362,16 +1362,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.2651382289943106</v>
+        <v>0.0693909857498979</v>
       </c>
       <c r="C58" t="n">
-        <v>0.2651382289943106</v>
+        <v>0.0693909857498979</v>
       </c>
       <c r="D58" t="n">
-        <v>0.2651382289943106</v>
+        <v>0.0693909857498979</v>
       </c>
       <c r="E58" t="n">
-        <v>0.2651382289943106</v>
+        <v>0.0693909857498979</v>
       </c>
     </row>
     <row r="59">
@@ -1379,16 +1379,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.3748996687692523</v>
+        <v>0.13325199067228</v>
       </c>
       <c r="C59" t="n">
-        <v>0.3748996687692523</v>
+        <v>0.13325199067228</v>
       </c>
       <c r="D59" t="n">
-        <v>0.3748996687692523</v>
+        <v>0.13325199067228</v>
       </c>
       <c r="E59" t="n">
-        <v>0.3748996687692523</v>
+        <v>0.13325199067228</v>
       </c>
     </row>
     <row r="60">
@@ -1396,16 +1396,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.497234141413028</v>
+        <v>0.192544265944656</v>
       </c>
       <c r="C60" t="n">
-        <v>0.497234141413028</v>
+        <v>0.192544265944656</v>
       </c>
       <c r="D60" t="n">
-        <v>0.497234141413028</v>
+        <v>0.192544265944656</v>
       </c>
       <c r="E60" t="n">
-        <v>0.497234141413028</v>
+        <v>0.192544265944656</v>
       </c>
     </row>
     <row r="61">
@@ -1413,16 +1413,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.524603814598145</v>
+        <v>0.214872995983982</v>
       </c>
       <c r="C61" t="n">
-        <v>0.524603814598145</v>
+        <v>0.214872995983982</v>
       </c>
       <c r="D61" t="n">
-        <v>0.524603814598145</v>
+        <v>0.214872995983982</v>
       </c>
       <c r="E61" t="n">
-        <v>0.524603814598145</v>
+        <v>0.214872995983982</v>
       </c>
     </row>
     <row r="62">
@@ -1430,16 +1430,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5404994881568381</v>
+        <v>0.212612362842649</v>
       </c>
       <c r="C62" t="n">
-        <v>0.5404994881568381</v>
+        <v>0.212612362842649</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5404994881568381</v>
+        <v>0.212612362842649</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5404994881568381</v>
+        <v>0.212612362842649</v>
       </c>
     </row>
     <row r="63">
@@ -1447,16 +1447,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.463680396049937</v>
+        <v>0.174883047044809</v>
       </c>
       <c r="C63" t="n">
-        <v>0.463680396049937</v>
+        <v>0.174883047044809</v>
       </c>
       <c r="D63" t="n">
-        <v>0.463680396049937</v>
+        <v>0.174883047044809</v>
       </c>
       <c r="E63" t="n">
-        <v>0.463680396049937</v>
+        <v>0.174883047044809</v>
       </c>
     </row>
     <row r="64">
@@ -1464,16 +1464,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.369636386097137</v>
+        <v>0.117227659588722</v>
       </c>
       <c r="C64" t="n">
-        <v>0.369636386097137</v>
+        <v>0.117227659588722</v>
       </c>
       <c r="D64" t="n">
-        <v>0.369636386097137</v>
+        <v>0.117227659588722</v>
       </c>
       <c r="E64" t="n">
-        <v>0.369636386097137</v>
+        <v>0.117227659588722</v>
       </c>
     </row>
     <row r="65">
@@ -1481,16 +1481,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.2974915230595903</v>
+        <v>0.0458943330718842</v>
       </c>
       <c r="C65" t="n">
-        <v>0.2974915230595903</v>
+        <v>0.0458943330718842</v>
       </c>
       <c r="D65" t="n">
-        <v>0.2974915230595903</v>
+        <v>0.0458943330718842</v>
       </c>
       <c r="E65" t="n">
-        <v>0.2974915230595903</v>
+        <v>0.0458943330718842</v>
       </c>
     </row>
     <row r="66">
@@ -1498,16 +1498,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.209538982314159</v>
+        <v>0.00725582521284549</v>
       </c>
       <c r="C66" t="n">
-        <v>0.209538982314159</v>
+        <v>0.00725582521284549</v>
       </c>
       <c r="D66" t="n">
-        <v>0.209538982314159</v>
+        <v>0.00725582521284549</v>
       </c>
       <c r="E66" t="n">
-        <v>0.209538982314159</v>
+        <v>0.00725582521284549</v>
       </c>
     </row>
     <row r="67">
@@ -1515,16 +1515,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.07609900505914514</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>0.07609900505914514</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0.07609900505914514</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>0.07609900505914514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1532,16 +1532,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.02049093146713027</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>0.02049093146713027</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0.02049093146713027</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>0.02049093146713027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1549,16 +1549,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.001681949959021958</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>0.001681949959021958</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0.001681949959021958</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0.001681949959021958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1702,16 +1702,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.001801078029957927</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>0.001801078029957927</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>0.001801078029957927</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>0.001801078029957927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -1719,16 +1719,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.01304512122279501</v>
+        <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>0.01304512122279501</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>0.01304512122279501</v>
+        <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>0.01304512122279501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1736,16 +1736,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.06950243576869158</v>
+        <v>0.000146490710348885</v>
       </c>
       <c r="C80" t="n">
-        <v>0.06950243576869158</v>
+        <v>0.000146490710348885</v>
       </c>
       <c r="D80" t="n">
-        <v>0.06950243576869158</v>
+        <v>0.000146490710348885</v>
       </c>
       <c r="E80" t="n">
-        <v>0.06950243576869158</v>
+        <v>0.000146490710348885</v>
       </c>
     </row>
     <row r="81">
@@ -1753,16 +1753,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.1945172990936709</v>
+        <v>0.0127029292183045</v>
       </c>
       <c r="C81" t="n">
-        <v>0.1945172990936709</v>
+        <v>0.0127029292183045</v>
       </c>
       <c r="D81" t="n">
-        <v>0.1945172990936709</v>
+        <v>0.0127029292183045</v>
       </c>
       <c r="E81" t="n">
-        <v>0.1945172990936709</v>
+        <v>0.0127029292183045</v>
       </c>
     </row>
     <row r="82">
@@ -1770,16 +1770,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.2835673156000034</v>
+        <v>0.0572569019500225</v>
       </c>
       <c r="C82" t="n">
-        <v>0.2835673156000034</v>
+        <v>0.0572569019500225</v>
       </c>
       <c r="D82" t="n">
-        <v>0.2835673156000034</v>
+        <v>0.0572569019500225</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2835673156000034</v>
+        <v>0.0572569019500225</v>
       </c>
     </row>
     <row r="83">
@@ -1787,16 +1787,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.3710165211928143</v>
+        <v>0.122800276382678</v>
       </c>
       <c r="C83" t="n">
-        <v>0.3710165211928143</v>
+        <v>0.122800276382678</v>
       </c>
       <c r="D83" t="n">
-        <v>0.3710165211928143</v>
+        <v>0.122800276382678</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3710165211928143</v>
+        <v>0.122800276382678</v>
       </c>
     </row>
     <row r="84">
@@ -1804,16 +1804,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.4499120667687889</v>
+        <v>0.166718836763861</v>
       </c>
       <c r="C84" t="n">
-        <v>0.4499120667687889</v>
+        <v>0.166718836763861</v>
       </c>
       <c r="D84" t="n">
-        <v>0.4499120667687889</v>
+        <v>0.166718836763861</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4499120667687889</v>
+        <v>0.166718836763861</v>
       </c>
     </row>
     <row r="85">
@@ -1821,16 +1821,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.4671430989928143</v>
+        <v>0.200181743188356</v>
       </c>
       <c r="C85" t="n">
-        <v>0.4671430989928143</v>
+        <v>0.200181743188356</v>
       </c>
       <c r="D85" t="n">
-        <v>0.4671430989928143</v>
+        <v>0.200181743188356</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4671430989928143</v>
+        <v>0.200181743188356</v>
       </c>
     </row>
     <row r="86">
@@ -1838,16 +1838,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.4662078032655824</v>
+        <v>0.205202900630538</v>
       </c>
       <c r="C86" t="n">
-        <v>0.4662078032655824</v>
+        <v>0.205202900630538</v>
       </c>
       <c r="D86" t="n">
-        <v>0.4662078032655824</v>
+        <v>0.205202900630538</v>
       </c>
       <c r="E86" t="n">
-        <v>0.4662078032655824</v>
+        <v>0.205202900630538</v>
       </c>
     </row>
     <row r="87">
@@ -1855,16 +1855,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.4018796061886918</v>
+        <v>0.162337668514515</v>
       </c>
       <c r="C87" t="n">
-        <v>0.4018796061886918</v>
+        <v>0.162337668514515</v>
       </c>
       <c r="D87" t="n">
-        <v>0.4018796061886918</v>
+        <v>0.162337668514515</v>
       </c>
       <c r="E87" t="n">
-        <v>0.4018796061886918</v>
+        <v>0.162337668514515</v>
       </c>
     </row>
     <row r="88">
@@ -1872,16 +1872,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.3355994025561702</v>
+        <v>0.115382921340004</v>
       </c>
       <c r="C88" t="n">
-        <v>0.3355994025561702</v>
+        <v>0.115382921340004</v>
       </c>
       <c r="D88" t="n">
-        <v>0.3355994025561702</v>
+        <v>0.115382921340004</v>
       </c>
       <c r="E88" t="n">
-        <v>0.3355994025561702</v>
+        <v>0.115382921340004</v>
       </c>
     </row>
     <row r="89">
@@ -1889,16 +1889,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.2947083598404121</v>
+        <v>0.0447570794391773</v>
       </c>
       <c r="C89" t="n">
-        <v>0.2947083598404121</v>
+        <v>0.0447570794391773</v>
       </c>
       <c r="D89" t="n">
-        <v>0.2947083598404121</v>
+        <v>0.0447570794391773</v>
       </c>
       <c r="E89" t="n">
-        <v>0.2947083598404121</v>
+        <v>0.0447570794391773</v>
       </c>
     </row>
     <row r="90">
@@ -1906,16 +1906,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.1794605362189616</v>
+        <v>0.00597305617793446</v>
       </c>
       <c r="C90" t="n">
-        <v>0.1794605362189616</v>
+        <v>0.00597305617793446</v>
       </c>
       <c r="D90" t="n">
-        <v>0.1794605362189616</v>
+        <v>0.00597305617793446</v>
       </c>
       <c r="E90" t="n">
-        <v>0.1794605362189616</v>
+        <v>0.00597305617793446</v>
       </c>
     </row>
     <row r="91">
@@ -1923,16 +1923,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.07884742213583164</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>0.07884742213583164</v>
+        <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>0.07884742213583164</v>
+        <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>0.07884742213583164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -1940,16 +1940,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.01637097917321989</v>
+        <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>0.01637097917321989</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>0.01637097917321989</v>
+        <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>0.01637097917321989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -1957,16 +1957,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.001072310039313004</v>
+        <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>0.001072310039313004</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>0.001072310039313004</v>
+        <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001072310039313004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2110,16 +2110,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.003635922025901517</v>
+        <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>0.003635922025901517</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>0.003635922025901517</v>
+        <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>0.003635922025901517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -2127,16 +2127,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.02655800777935998</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>0.02655800777935998</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>0.02655800777935998</v>
+        <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>0.02655800777935998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -2144,16 +2144,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.09659419384372629</v>
+        <v>0.000355293409658726</v>
       </c>
       <c r="C104" t="n">
-        <v>0.09659419384372629</v>
+        <v>0.000355293409658726</v>
       </c>
       <c r="D104" t="n">
-        <v>0.09659419384372629</v>
+        <v>0.000355293409658726</v>
       </c>
       <c r="E104" t="n">
-        <v>0.09659419384372629</v>
+        <v>0.000355293409658726</v>
       </c>
     </row>
     <row r="105">
@@ -2161,16 +2161,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.2018493015438038</v>
+        <v>0.0139701408434668</v>
       </c>
       <c r="C105" t="n">
-        <v>0.2018493015438038</v>
+        <v>0.0139701408434668</v>
       </c>
       <c r="D105" t="n">
-        <v>0.2018493015438038</v>
+        <v>0.0139701408434668</v>
       </c>
       <c r="E105" t="n">
-        <v>0.2018493015438038</v>
+        <v>0.0139701408434668</v>
       </c>
     </row>
     <row r="106">
@@ -2178,16 +2178,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.3311844134946226</v>
+        <v>0.066620409929481</v>
       </c>
       <c r="C106" t="n">
-        <v>0.3311844134946226</v>
+        <v>0.066620409929481</v>
       </c>
       <c r="D106" t="n">
-        <v>0.3311844134946226</v>
+        <v>0.066620409929481</v>
       </c>
       <c r="E106" t="n">
-        <v>0.3311844134946226</v>
+        <v>0.066620409929481</v>
       </c>
     </row>
     <row r="107">
@@ -2195,16 +2195,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.4073967800669895</v>
+        <v>0.126605758835292</v>
       </c>
       <c r="C107" t="n">
-        <v>0.4073967800669895</v>
+        <v>0.126605758835292</v>
       </c>
       <c r="D107" t="n">
-        <v>0.4073967800669895</v>
+        <v>0.126605758835292</v>
       </c>
       <c r="E107" t="n">
-        <v>0.4073967800669895</v>
+        <v>0.126605758835292</v>
       </c>
     </row>
     <row r="108">
@@ -2212,16 +2212,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.4095104730865496</v>
+        <v>0.174414464890337</v>
       </c>
       <c r="C108" t="n">
-        <v>0.4095104730865496</v>
+        <v>0.174414464890337</v>
       </c>
       <c r="D108" t="n">
-        <v>0.4095104730865496</v>
+        <v>0.174414464890337</v>
       </c>
       <c r="E108" t="n">
-        <v>0.4095104730865496</v>
+        <v>0.174414464890337</v>
       </c>
     </row>
     <row r="109">
@@ -2229,16 +2229,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.3991768087689588</v>
+        <v>0.231175092347086</v>
       </c>
       <c r="C109" t="n">
-        <v>0.3991768087689588</v>
+        <v>0.231175092347086</v>
       </c>
       <c r="D109" t="n">
-        <v>0.3991768087689588</v>
+        <v>0.231175092347086</v>
       </c>
       <c r="E109" t="n">
-        <v>0.3991768087689588</v>
+        <v>0.231175092347086</v>
       </c>
     </row>
     <row r="110">
@@ -2246,16 +2246,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.3924090682244504</v>
+        <v>0.240108242264129</v>
       </c>
       <c r="C110" t="n">
-        <v>0.3924090682244504</v>
+        <v>0.240108242264129</v>
       </c>
       <c r="D110" t="n">
-        <v>0.3924090682244504</v>
+        <v>0.240108242264129</v>
       </c>
       <c r="E110" t="n">
-        <v>0.3924090682244504</v>
+        <v>0.240108242264129</v>
       </c>
     </row>
     <row r="111">
@@ -2263,16 +2263,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.3447395465787205</v>
+        <v>0.20894992134453</v>
       </c>
       <c r="C111" t="n">
-        <v>0.3447395465787205</v>
+        <v>0.20894992134453</v>
       </c>
       <c r="D111" t="n">
-        <v>0.3447395465787205</v>
+        <v>0.20894992134453</v>
       </c>
       <c r="E111" t="n">
-        <v>0.3447395465787205</v>
+        <v>0.20894992134453</v>
       </c>
     </row>
     <row r="112">
@@ -2280,16 +2280,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.3708279810358509</v>
+        <v>0.122283377295447</v>
       </c>
       <c r="C112" t="n">
-        <v>0.3708279810358509</v>
+        <v>0.122283377295447</v>
       </c>
       <c r="D112" t="n">
-        <v>0.3708279810358509</v>
+        <v>0.122283377295447</v>
       </c>
       <c r="E112" t="n">
-        <v>0.3708279810358509</v>
+        <v>0.122283377295447</v>
       </c>
     </row>
     <row r="113">
@@ -2297,16 +2297,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.2963411885979058</v>
+        <v>0.0508780958333698</v>
       </c>
       <c r="C113" t="n">
-        <v>0.2963411885979058</v>
+        <v>0.0508780958333698</v>
       </c>
       <c r="D113" t="n">
-        <v>0.2963411885979058</v>
+        <v>0.0508780958333698</v>
       </c>
       <c r="E113" t="n">
-        <v>0.2963411885979058</v>
+        <v>0.0508780958333698</v>
       </c>
     </row>
     <row r="114">
@@ -2314,16 +2314,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.182713719642318</v>
+        <v>0.00840862388386779</v>
       </c>
       <c r="C114" t="n">
-        <v>0.182713719642318</v>
+        <v>0.00840862388386779</v>
       </c>
       <c r="D114" t="n">
-        <v>0.182713719642318</v>
+        <v>0.00840862388386779</v>
       </c>
       <c r="E114" t="n">
-        <v>0.182713719642318</v>
+        <v>0.00840862388386779</v>
       </c>
     </row>
     <row r="115">
@@ -2331,16 +2331,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.07747294949638409</v>
+        <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>0.07747294949638409</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>0.07747294949638409</v>
+        <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>0.07747294949638409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -2348,16 +2348,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.01994611868372567</v>
+        <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>0.01994611868372567</v>
+        <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>0.01994611868372567</v>
+        <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>0.01994611868372567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -2365,16 +2365,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.001632794717372416</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>0.001632794717372416</v>
+        <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>0.001632794717372416</v>
+        <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>0.001632794717372416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -2518,16 +2518,16 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.002363478325905505</v>
+        <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>0.002363478325905505</v>
+        <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>0.002363478325905505</v>
+        <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>0.002363478325905505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -2535,16 +2535,16 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.01910549492631149</v>
+        <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>0.01910549492631149</v>
+        <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>0.01910549492631149</v>
+        <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>0.01910549492631149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -2552,16 +2552,16 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.07262871485207224</v>
+        <v>0.000483351305405384</v>
       </c>
       <c r="C128" t="n">
-        <v>0.07262871485207224</v>
+        <v>0.000483351305405384</v>
       </c>
       <c r="D128" t="n">
-        <v>0.07262871485207224</v>
+        <v>0.000483351305405384</v>
       </c>
       <c r="E128" t="n">
-        <v>0.07262871485207224</v>
+        <v>0.000483351305405384</v>
       </c>
     </row>
     <row r="129">
@@ -2569,16 +2569,16 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.187084334500282</v>
+        <v>0.0151126850693456</v>
       </c>
       <c r="C129" t="n">
-        <v>0.187084334500282</v>
+        <v>0.0151126850693456</v>
       </c>
       <c r="D129" t="n">
-        <v>0.187084334500282</v>
+        <v>0.0151126850693456</v>
       </c>
       <c r="E129" t="n">
-        <v>0.187084334500282</v>
+        <v>0.0151126850693456</v>
       </c>
     </row>
     <row r="130">
@@ -2586,16 +2586,16 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.3507947744133031</v>
+        <v>0.0618503034453008</v>
       </c>
       <c r="C130" t="n">
-        <v>0.3507947744133031</v>
+        <v>0.0618503034453008</v>
       </c>
       <c r="D130" t="n">
-        <v>0.3507947744133031</v>
+        <v>0.0618503034453008</v>
       </c>
       <c r="E130" t="n">
-        <v>0.3507947744133031</v>
+        <v>0.0618503034453008</v>
       </c>
     </row>
     <row r="131">
@@ -2603,16 +2603,16 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.4909238819855874</v>
+        <v>0.128565129509687</v>
       </c>
       <c r="C131" t="n">
-        <v>0.4909238819855874</v>
+        <v>0.128565129509687</v>
       </c>
       <c r="D131" t="n">
-        <v>0.4909238819855874</v>
+        <v>0.128565129509687</v>
       </c>
       <c r="E131" t="n">
-        <v>0.4909238819855874</v>
+        <v>0.128565129509687</v>
       </c>
     </row>
     <row r="132">
@@ -2620,16 +2620,16 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.5537733381728315</v>
+        <v>0.175163038271671</v>
       </c>
       <c r="C132" t="n">
-        <v>0.5537733381728315</v>
+        <v>0.175163038271671</v>
       </c>
       <c r="D132" t="n">
-        <v>0.5537733381728315</v>
+        <v>0.175163038271671</v>
       </c>
       <c r="E132" t="n">
-        <v>0.5537733381728315</v>
+        <v>0.175163038271671</v>
       </c>
     </row>
     <row r="133">
@@ -2637,16 +2637,16 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.5477372535347307</v>
+        <v>0.213739440333738</v>
       </c>
       <c r="C133" t="n">
-        <v>0.5477372535347307</v>
+        <v>0.213739440333738</v>
       </c>
       <c r="D133" t="n">
-        <v>0.5477372535347307</v>
+        <v>0.213739440333738</v>
       </c>
       <c r="E133" t="n">
-        <v>0.5477372535347307</v>
+        <v>0.213739440333738</v>
       </c>
     </row>
     <row r="134">
@@ -2654,16 +2654,16 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.5783673310580215</v>
+        <v>0.219198610361089</v>
       </c>
       <c r="C134" t="n">
-        <v>0.5783673310580215</v>
+        <v>0.219198610361089</v>
       </c>
       <c r="D134" t="n">
-        <v>0.5783673310580215</v>
+        <v>0.219198610361089</v>
       </c>
       <c r="E134" t="n">
-        <v>0.5783673310580215</v>
+        <v>0.219198610361089</v>
       </c>
     </row>
     <row r="135">
@@ -2671,16 +2671,16 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.5438451422318175</v>
+        <v>0.184663534592392</v>
       </c>
       <c r="C135" t="n">
-        <v>0.5438451422318175</v>
+        <v>0.184663534592392</v>
       </c>
       <c r="D135" t="n">
-        <v>0.5438451422318175</v>
+        <v>0.184663534592392</v>
       </c>
       <c r="E135" t="n">
-        <v>0.5438451422318175</v>
+        <v>0.184663534592392</v>
       </c>
     </row>
     <row r="136">
@@ -2688,16 +2688,16 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.4431900630905093</v>
+        <v>0.12177765859024</v>
       </c>
       <c r="C136" t="n">
-        <v>0.4431900630905093</v>
+        <v>0.12177765859024</v>
       </c>
       <c r="D136" t="n">
-        <v>0.4431900630905093</v>
+        <v>0.12177765859024</v>
       </c>
       <c r="E136" t="n">
-        <v>0.4431900630905093</v>
+        <v>0.12177765859024</v>
       </c>
     </row>
     <row r="137">
@@ -2705,16 +2705,16 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.309803206698088</v>
+        <v>0.0506069496554055</v>
       </c>
       <c r="C137" t="n">
-        <v>0.309803206698088</v>
+        <v>0.0506069496554055</v>
       </c>
       <c r="D137" t="n">
-        <v>0.309803206698088</v>
+        <v>0.0506069496554055</v>
       </c>
       <c r="E137" t="n">
-        <v>0.309803206698088</v>
+        <v>0.0506069496554055</v>
       </c>
     </row>
     <row r="138">
@@ -2722,16 +2722,16 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.2087947358812949</v>
+        <v>0.0112997713958085</v>
       </c>
       <c r="C138" t="n">
-        <v>0.2087947358812949</v>
+        <v>0.0112997713958085</v>
       </c>
       <c r="D138" t="n">
-        <v>0.2087947358812949</v>
+        <v>0.0112997713958085</v>
       </c>
       <c r="E138" t="n">
-        <v>0.2087947358812949</v>
+        <v>0.0112997713958085</v>
       </c>
     </row>
     <row r="139">
@@ -2739,16 +2739,16 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.08221628016710948</v>
+        <v>0.000383322781154497</v>
       </c>
       <c r="C139" t="n">
-        <v>0.08221628016710948</v>
+        <v>0.000383322781154497</v>
       </c>
       <c r="D139" t="n">
-        <v>0.08221628016710948</v>
+        <v>0.000383322781154497</v>
       </c>
       <c r="E139" t="n">
-        <v>0.08221628016710948</v>
+        <v>0.000383322781154497</v>
       </c>
     </row>
     <row r="140">
@@ -2756,16 +2756,16 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.02092315420072047</v>
+        <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>0.02092315420072047</v>
+        <v>0</v>
       </c>
       <c r="D140" t="n">
-        <v>0.02092315420072047</v>
+        <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>0.02092315420072047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -2773,16 +2773,16 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.00166054588050117</v>
+        <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>0.00166054588050117</v>
+        <v>0</v>
       </c>
       <c r="D141" t="n">
-        <v>0.00166054588050117</v>
+        <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>0.00166054588050117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -2926,16 +2926,16 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.001317645910781772</v>
+        <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>0.001317645910781772</v>
+        <v>0</v>
       </c>
       <c r="D150" t="n">
-        <v>0.001317645910781772</v>
+        <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>0.001317645910781772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -2943,16 +2943,16 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.01105611238803476</v>
+        <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>0.01105611238803476</v>
+        <v>0</v>
       </c>
       <c r="D151" t="n">
-        <v>0.01105611238803476</v>
+        <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>0.01105611238803476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -2960,16 +2960,16 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.05819585859487354</v>
+        <v>0.00047579889755681</v>
       </c>
       <c r="C152" t="n">
-        <v>0.05819585859487354</v>
+        <v>0.00047579889755681</v>
       </c>
       <c r="D152" t="n">
-        <v>0.05819585859487354</v>
+        <v>0.00047579889755681</v>
       </c>
       <c r="E152" t="n">
-        <v>0.05819585859487354</v>
+        <v>0.00047579889755681</v>
       </c>
     </row>
     <row r="153">
@@ -2977,16 +2977,16 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.1917650033336109</v>
+        <v>0.0105813224013437</v>
       </c>
       <c r="C153" t="n">
-        <v>0.1917650033336109</v>
+        <v>0.0105813224013437</v>
       </c>
       <c r="D153" t="n">
-        <v>0.1917650033336109</v>
+        <v>0.0105813224013437</v>
       </c>
       <c r="E153" t="n">
-        <v>0.1917650033336109</v>
+        <v>0.0105813224013437</v>
       </c>
     </row>
     <row r="154">
@@ -2994,16 +2994,16 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.3297121407079872</v>
+        <v>0.0513554490168064</v>
       </c>
       <c r="C154" t="n">
-        <v>0.3297121407079872</v>
+        <v>0.0513554490168064</v>
       </c>
       <c r="D154" t="n">
-        <v>0.3297121407079872</v>
+        <v>0.0513554490168064</v>
       </c>
       <c r="E154" t="n">
-        <v>0.3297121407079872</v>
+        <v>0.0513554490168064</v>
       </c>
     </row>
     <row r="155">
@@ -3011,16 +3011,16 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.4516904369029445</v>
+        <v>0.118964172194822</v>
       </c>
       <c r="C155" t="n">
-        <v>0.4516904369029445</v>
+        <v>0.118964172194822</v>
       </c>
       <c r="D155" t="n">
-        <v>0.4516904369029445</v>
+        <v>0.118964172194822</v>
       </c>
       <c r="E155" t="n">
-        <v>0.4516904369029445</v>
+        <v>0.118964172194822</v>
       </c>
     </row>
     <row r="156">
@@ -3028,16 +3028,16 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.4555418366285829</v>
+        <v>0.180024805951173</v>
       </c>
       <c r="C156" t="n">
-        <v>0.4555418366285829</v>
+        <v>0.180024805951173</v>
       </c>
       <c r="D156" t="n">
-        <v>0.4555418366285829</v>
+        <v>0.180024805951173</v>
       </c>
       <c r="E156" t="n">
-        <v>0.4555418366285829</v>
+        <v>0.180024805951173</v>
       </c>
     </row>
     <row r="157">
@@ -3045,16 +3045,16 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.4312873981842008</v>
+        <v>0.213272478417134</v>
       </c>
       <c r="C157" t="n">
-        <v>0.4312873981842008</v>
+        <v>0.213272478417134</v>
       </c>
       <c r="D157" t="n">
-        <v>0.4312873981842008</v>
+        <v>0.213272478417134</v>
       </c>
       <c r="E157" t="n">
-        <v>0.4312873981842008</v>
+        <v>0.213272478417134</v>
       </c>
     </row>
     <row r="158">
@@ -3062,16 +3062,16 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.4400852425146217</v>
+        <v>0.199079472403887</v>
       </c>
       <c r="C158" t="n">
-        <v>0.4400852425146217</v>
+        <v>0.199079472403887</v>
       </c>
       <c r="D158" t="n">
-        <v>0.4400852425146217</v>
+        <v>0.199079472403887</v>
       </c>
       <c r="E158" t="n">
-        <v>0.4400852425146217</v>
+        <v>0.199079472403887</v>
       </c>
     </row>
     <row r="159">
@@ -3079,16 +3079,16 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0.4583461606871901</v>
+        <v>0.128370141576378</v>
       </c>
       <c r="C159" t="n">
-        <v>0.4583461606871901</v>
+        <v>0.128370141576378</v>
       </c>
       <c r="D159" t="n">
-        <v>0.4583461606871901</v>
+        <v>0.128370141576378</v>
       </c>
       <c r="E159" t="n">
-        <v>0.4583461606871901</v>
+        <v>0.128370141576378</v>
       </c>
     </row>
     <row r="160">
@@ -3096,16 +3096,16 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.3992496145553232</v>
+        <v>0.08020033638586491</v>
       </c>
       <c r="C160" t="n">
-        <v>0.3992496145553232</v>
+        <v>0.08020033638586491</v>
       </c>
       <c r="D160" t="n">
-        <v>0.3992496145553232</v>
+        <v>0.08020033638586491</v>
       </c>
       <c r="E160" t="n">
-        <v>0.3992496145553232</v>
+        <v>0.08020033638586491</v>
       </c>
     </row>
     <row r="161">
@@ -3113,16 +3113,16 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0.3096270131054676</v>
+        <v>0.0332245729870141</v>
       </c>
       <c r="C161" t="n">
-        <v>0.3096270131054676</v>
+        <v>0.0332245729870141</v>
       </c>
       <c r="D161" t="n">
-        <v>0.3096270131054676</v>
+        <v>0.0332245729870141</v>
       </c>
       <c r="E161" t="n">
-        <v>0.3096270131054676</v>
+        <v>0.0332245729870141</v>
       </c>
     </row>
     <row r="162">
@@ -3130,16 +3130,16 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>0.1971891453998253</v>
+        <v>0.00568373938656504</v>
       </c>
       <c r="C162" t="n">
-        <v>0.1971891453998253</v>
+        <v>0.00568373938656504</v>
       </c>
       <c r="D162" t="n">
-        <v>0.1971891453998253</v>
+        <v>0.00568373938656504</v>
       </c>
       <c r="E162" t="n">
-        <v>0.1971891453998253</v>
+        <v>0.00568373938656504</v>
       </c>
     </row>
     <row r="163">
@@ -3147,16 +3147,16 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>0.08050260201411739</v>
+        <v>0.000112525432656089</v>
       </c>
       <c r="C163" t="n">
-        <v>0.08050260201411739</v>
+        <v>0.000112525432656089</v>
       </c>
       <c r="D163" t="n">
-        <v>0.08050260201411739</v>
+        <v>0.000112525432656089</v>
       </c>
       <c r="E163" t="n">
-        <v>0.08050260201411739</v>
+        <v>0.000112525432656089</v>
       </c>
     </row>
     <row r="164">
@@ -3164,16 +3164,16 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0.01488398758728847</v>
+        <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>0.01488398758728847</v>
+        <v>0</v>
       </c>
       <c r="D164" t="n">
-        <v>0.01488398758728847</v>
+        <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>0.01488398758728847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -3181,16 +3181,16 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0004662821242229215</v>
+        <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>0.0004662821242229215</v>
+        <v>0</v>
       </c>
       <c r="D165" t="n">
-        <v>0.0004662821242229215</v>
+        <v>0</v>
       </c>
       <c r="E165" t="n">
-        <v>0.0004662821242229215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -3334,16 +3334,16 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>0.0009405015392206973</v>
+        <v>0.00102177945001755</v>
       </c>
       <c r="C174" t="n">
-        <v>0.0009405015392206973</v>
+        <v>0.00102177945001755</v>
       </c>
       <c r="D174" t="n">
-        <v>0.0009405015392206973</v>
+        <v>0.00102177945001755</v>
       </c>
       <c r="E174" t="n">
-        <v>0.0009405015392206973</v>
+        <v>0.00102177945001755</v>
       </c>
     </row>
     <row r="175">
@@ -3351,16 +3351,16 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>0.01166949913973025</v>
+        <v>0.0128764854965845</v>
       </c>
       <c r="C175" t="n">
-        <v>0.01166949913973025</v>
+        <v>0.0128764854965845</v>
       </c>
       <c r="D175" t="n">
-        <v>0.01166949913973025</v>
+        <v>0.0128764854965845</v>
       </c>
       <c r="E175" t="n">
-        <v>0.01166949913973025</v>
+        <v>0.0128764854965845</v>
       </c>
     </row>
     <row r="176">
@@ -3368,16 +3368,16 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>0.05495793896639046</v>
+        <v>0.0600799286623274</v>
       </c>
       <c r="C176" t="n">
-        <v>0.05495793896639046</v>
+        <v>0.0600799286623274</v>
       </c>
       <c r="D176" t="n">
-        <v>0.05495793896639046</v>
+        <v>0.0600799286623274</v>
       </c>
       <c r="E176" t="n">
-        <v>0.05495793896639046</v>
+        <v>0.0600799286623274</v>
       </c>
     </row>
     <row r="177">
@@ -3385,16 +3385,16 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>0.1597594746616769</v>
+        <v>0.168701387542207</v>
       </c>
       <c r="C177" t="n">
-        <v>0.1597594746616769</v>
+        <v>0.168701387542207</v>
       </c>
       <c r="D177" t="n">
-        <v>0.1597594746616769</v>
+        <v>0.168701387542207</v>
       </c>
       <c r="E177" t="n">
-        <v>0.1597594746616769</v>
+        <v>0.168701387542207</v>
       </c>
     </row>
     <row r="178">
@@ -3402,16 +3402,16 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>0.2938568083559677</v>
+        <v>0.309720439834487</v>
       </c>
       <c r="C178" t="n">
-        <v>0.2938568083559677</v>
+        <v>0.309720439834487</v>
       </c>
       <c r="D178" t="n">
-        <v>0.2938568083559677</v>
+        <v>0.309720439834487</v>
       </c>
       <c r="E178" t="n">
-        <v>0.2938568083559677</v>
+        <v>0.309720439834487</v>
       </c>
     </row>
     <row r="179">
@@ -3419,16 +3419,16 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>0.4131421751742605</v>
+        <v>0.431060796250893</v>
       </c>
       <c r="C179" t="n">
-        <v>0.4131421751742605</v>
+        <v>0.431060796250893</v>
       </c>
       <c r="D179" t="n">
-        <v>0.4131421751742605</v>
+        <v>0.431060796250893</v>
       </c>
       <c r="E179" t="n">
-        <v>0.4131421751742605</v>
+        <v>0.431060796250893</v>
       </c>
     </row>
     <row r="180">
@@ -3436,16 +3436,16 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>0.4807697336536558</v>
+        <v>0.497919057681157</v>
       </c>
       <c r="C180" t="n">
-        <v>0.4807697336536558</v>
+        <v>0.497919057681157</v>
       </c>
       <c r="D180" t="n">
-        <v>0.4807697336536558</v>
+        <v>0.497919057681157</v>
       </c>
       <c r="E180" t="n">
-        <v>0.4807697336536558</v>
+        <v>0.497919057681157</v>
       </c>
     </row>
     <row r="181">
@@ -3453,16 +3453,16 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>0.4874128012107012</v>
+        <v>0.514288013769749</v>
       </c>
       <c r="C181" t="n">
-        <v>0.4874128012107012</v>
+        <v>0.514288013769749</v>
       </c>
       <c r="D181" t="n">
-        <v>0.4874128012107012</v>
+        <v>0.514288013769749</v>
       </c>
       <c r="E181" t="n">
-        <v>0.4874128012107012</v>
+        <v>0.514288013769749</v>
       </c>
     </row>
     <row r="182">
@@ -3470,16 +3470,16 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>0.4706818234333802</v>
+        <v>0.492703877433938</v>
       </c>
       <c r="C182" t="n">
-        <v>0.4706818234333802</v>
+        <v>0.492703877433938</v>
       </c>
       <c r="D182" t="n">
-        <v>0.4706818234333802</v>
+        <v>0.492703877433938</v>
       </c>
       <c r="E182" t="n">
-        <v>0.4706818234333802</v>
+        <v>0.492703877433938</v>
       </c>
     </row>
     <row r="183">
@@ -3487,16 +3487,16 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>0.3981964554257621</v>
+        <v>0.417906042406073</v>
       </c>
       <c r="C183" t="n">
-        <v>0.3981964554257621</v>
+        <v>0.417906042406073</v>
       </c>
       <c r="D183" t="n">
-        <v>0.3981964554257621</v>
+        <v>0.417906042406073</v>
       </c>
       <c r="E183" t="n">
-        <v>0.3981964554257621</v>
+        <v>0.417906042406073</v>
       </c>
     </row>
     <row r="184">
@@ -3504,16 +3504,16 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>0.3537276579862232</v>
+        <v>0.370589767704531</v>
       </c>
       <c r="C184" t="n">
-        <v>0.3537276579862232</v>
+        <v>0.370589767704531</v>
       </c>
       <c r="D184" t="n">
-        <v>0.3537276579862232</v>
+        <v>0.370589767704531</v>
       </c>
       <c r="E184" t="n">
-        <v>0.3537276579862232</v>
+        <v>0.370589767704531</v>
       </c>
     </row>
     <row r="185">
@@ -3521,16 +3521,16 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>0.258816113554275</v>
+        <v>0.273719744803271</v>
       </c>
       <c r="C185" t="n">
-        <v>0.258816113554275</v>
+        <v>0.273719744803271</v>
       </c>
       <c r="D185" t="n">
-        <v>0.258816113554275</v>
+        <v>0.273719744803271</v>
       </c>
       <c r="E185" t="n">
-        <v>0.258816113554275</v>
+        <v>0.273719744803271</v>
       </c>
     </row>
     <row r="186">
@@ -3538,16 +3538,16 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>0.1498997855148922</v>
+        <v>0.163223676314954</v>
       </c>
       <c r="C186" t="n">
-        <v>0.1498997855148922</v>
+        <v>0.163223676314954</v>
       </c>
       <c r="D186" t="n">
-        <v>0.1498997855148922</v>
+        <v>0.163223676314954</v>
       </c>
       <c r="E186" t="n">
-        <v>0.1498997855148922</v>
+        <v>0.163223676314954</v>
       </c>
     </row>
     <row r="187">
@@ -3555,16 +3555,16 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>0.05464350724446754</v>
+        <v>0.0610268330270441</v>
       </c>
       <c r="C187" t="n">
-        <v>0.05464350724446754</v>
+        <v>0.0610268330270441</v>
       </c>
       <c r="D187" t="n">
-        <v>0.05464350724446754</v>
+        <v>0.0610268330270441</v>
       </c>
       <c r="E187" t="n">
-        <v>0.05464350724446754</v>
+        <v>0.0610268330270441</v>
       </c>
     </row>
     <row r="188">
@@ -3572,16 +3572,16 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>0.009770782738393109</v>
+        <v>0.0111230352040853</v>
       </c>
       <c r="C188" t="n">
-        <v>0.009770782738393109</v>
+        <v>0.0111230352040853</v>
       </c>
       <c r="D188" t="n">
-        <v>0.009770782738393109</v>
+        <v>0.0111230352040853</v>
       </c>
       <c r="E188" t="n">
-        <v>0.009770782738393109</v>
+        <v>0.0111230352040853</v>
       </c>
     </row>
     <row r="189">
@@ -3589,16 +3589,16 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>7.858623975333716e-05</v>
+        <v>8.53776431888107e-05</v>
       </c>
       <c r="C189" t="n">
-        <v>7.858623975333716e-05</v>
+        <v>8.53776431888107e-05</v>
       </c>
       <c r="D189" t="n">
-        <v>7.858623975333716e-05</v>
+        <v>8.53776431888107e-05</v>
       </c>
       <c r="E189" t="n">
-        <v>7.858623975333716e-05</v>
+        <v>8.53776431888107e-05</v>
       </c>
     </row>
     <row r="190">
@@ -3742,16 +3742,16 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>0.0007780128611026175</v>
+        <v>0.000845248540457165</v>
       </c>
       <c r="C198" t="n">
-        <v>0.0007780128611026175</v>
+        <v>0.000845248540457165</v>
       </c>
       <c r="D198" t="n">
-        <v>0.0007780128611026175</v>
+        <v>0.000845248540457165</v>
       </c>
       <c r="E198" t="n">
-        <v>0.0007780128611026175</v>
+        <v>0.000845248540457165</v>
       </c>
     </row>
     <row r="199">
@@ -3759,16 +3759,16 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>0.009274202072754758</v>
+        <v>0.0101081299382978</v>
       </c>
       <c r="C199" t="n">
-        <v>0.009274202072754758</v>
+        <v>0.0101081299382978</v>
       </c>
       <c r="D199" t="n">
-        <v>0.009274202072754758</v>
+        <v>0.0101081299382978</v>
       </c>
       <c r="E199" t="n">
-        <v>0.009274202072754758</v>
+        <v>0.0101081299382978</v>
       </c>
     </row>
     <row r="200">
@@ -3776,16 +3776,16 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>0.04588443557431669</v>
+        <v>0.04996288903769</v>
       </c>
       <c r="C200" t="n">
-        <v>0.04588443557431669</v>
+        <v>0.04996288903769</v>
       </c>
       <c r="D200" t="n">
-        <v>0.04588443557431669</v>
+        <v>0.04996288903769</v>
       </c>
       <c r="E200" t="n">
-        <v>0.04588443557431669</v>
+        <v>0.04996288903769</v>
       </c>
     </row>
     <row r="201">
@@ -3793,16 +3793,16 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>0.1539624453098107</v>
+        <v>0.166569692672943</v>
       </c>
       <c r="C201" t="n">
-        <v>0.1539624453098107</v>
+        <v>0.166569692672943</v>
       </c>
       <c r="D201" t="n">
-        <v>0.1539624453098107</v>
+        <v>0.166569692672943</v>
       </c>
       <c r="E201" t="n">
-        <v>0.1539624453098107</v>
+        <v>0.166569692672943</v>
       </c>
     </row>
     <row r="202">
@@ -3810,16 +3810,16 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>0.2950756401516108</v>
+        <v>0.313990619661329</v>
       </c>
       <c r="C202" t="n">
-        <v>0.2950756401516108</v>
+        <v>0.313990619661329</v>
       </c>
       <c r="D202" t="n">
-        <v>0.2950756401516108</v>
+        <v>0.313990619661329</v>
       </c>
       <c r="E202" t="n">
-        <v>0.2950756401516108</v>
+        <v>0.313990619661329</v>
       </c>
     </row>
     <row r="203">
@@ -3827,16 +3827,16 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>0.4081127907548698</v>
+        <v>0.420114442965719</v>
       </c>
       <c r="C203" t="n">
-        <v>0.4081127907548698</v>
+        <v>0.420114442965719</v>
       </c>
       <c r="D203" t="n">
-        <v>0.4081127907548698</v>
+        <v>0.420114442965719</v>
       </c>
       <c r="E203" t="n">
-        <v>0.4081127907548698</v>
+        <v>0.420114442965719</v>
       </c>
     </row>
     <row r="204">
@@ -3844,16 +3844,16 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>0.4709416432138692</v>
+        <v>0.475036702122976</v>
       </c>
       <c r="C204" t="n">
-        <v>0.4709416432138692</v>
+        <v>0.475036702122976</v>
       </c>
       <c r="D204" t="n">
-        <v>0.4709416432138692</v>
+        <v>0.475036702122976</v>
       </c>
       <c r="E204" t="n">
-        <v>0.4709416432138692</v>
+        <v>0.475036702122976</v>
       </c>
     </row>
     <row r="205">
@@ -3861,16 +3861,16 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>0.5010383618323068</v>
+        <v>0.50828275194883</v>
       </c>
       <c r="C205" t="n">
-        <v>0.5010383618323068</v>
+        <v>0.50828275194883</v>
       </c>
       <c r="D205" t="n">
-        <v>0.5010383618323068</v>
+        <v>0.50828275194883</v>
       </c>
       <c r="E205" t="n">
-        <v>0.5010383618323068</v>
+        <v>0.50828275194883</v>
       </c>
     </row>
     <row r="206">
@@ -3878,16 +3878,16 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>0.5149889976947187</v>
+        <v>0.523568739783183</v>
       </c>
       <c r="C206" t="n">
-        <v>0.5149889976947187</v>
+        <v>0.523568739783183</v>
       </c>
       <c r="D206" t="n">
-        <v>0.5149889976947187</v>
+        <v>0.523568739783183</v>
       </c>
       <c r="E206" t="n">
-        <v>0.5149889976947187</v>
+        <v>0.523568739783183</v>
       </c>
     </row>
     <row r="207">
@@ -3895,16 +3895,16 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>0.4678757166766832</v>
+        <v>0.473880564408561</v>
       </c>
       <c r="C207" t="n">
-        <v>0.4678757166766832</v>
+        <v>0.473880564408561</v>
       </c>
       <c r="D207" t="n">
-        <v>0.4678757166766832</v>
+        <v>0.473880564408561</v>
       </c>
       <c r="E207" t="n">
-        <v>0.4678757166766832</v>
+        <v>0.473880564408561</v>
       </c>
     </row>
     <row r="208">
@@ -3912,16 +3912,16 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>0.4070524436118529</v>
+        <v>0.4153595097461</v>
       </c>
       <c r="C208" t="n">
-        <v>0.4070524436118529</v>
+        <v>0.4153595097461</v>
       </c>
       <c r="D208" t="n">
-        <v>0.4070524436118529</v>
+        <v>0.4153595097461</v>
       </c>
       <c r="E208" t="n">
-        <v>0.4070524436118529</v>
+        <v>0.4153595097461</v>
       </c>
     </row>
     <row r="209">
@@ -3929,16 +3929,16 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>0.2947635761575067</v>
+        <v>0.307635718208557</v>
       </c>
       <c r="C209" t="n">
-        <v>0.2947635761575067</v>
+        <v>0.307635718208557</v>
       </c>
       <c r="D209" t="n">
-        <v>0.2947635761575067</v>
+        <v>0.307635718208557</v>
       </c>
       <c r="E209" t="n">
-        <v>0.2947635761575067</v>
+        <v>0.307635718208557</v>
       </c>
     </row>
     <row r="210">
@@ -3946,16 +3946,16 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>0.1499146141573731</v>
+        <v>0.164543438344331</v>
       </c>
       <c r="C210" t="n">
-        <v>0.1499146141573731</v>
+        <v>0.164543438344331</v>
       </c>
       <c r="D210" t="n">
-        <v>0.1499146141573731</v>
+        <v>0.164543438344331</v>
       </c>
       <c r="E210" t="n">
-        <v>0.1499146141573731</v>
+        <v>0.164543438344331</v>
       </c>
     </row>
     <row r="211">
@@ -3963,16 +3963,16 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>0.04505153429055837</v>
+        <v>0.0507062175212761</v>
       </c>
       <c r="C211" t="n">
-        <v>0.04505153429055837</v>
+        <v>0.0507062175212761</v>
       </c>
       <c r="D211" t="n">
-        <v>0.04505153429055837</v>
+        <v>0.0507062175212761</v>
       </c>
       <c r="E211" t="n">
-        <v>0.04505153429055837</v>
+        <v>0.0507062175212761</v>
       </c>
     </row>
     <row r="212">
@@ -3980,16 +3980,16 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>0.009145878978081853</v>
+        <v>0.0104418373590188</v>
       </c>
       <c r="C212" t="n">
-        <v>0.009145878978081853</v>
+        <v>0.0104418373590188</v>
       </c>
       <c r="D212" t="n">
-        <v>0.009145878978081853</v>
+        <v>0.0104418373590188</v>
       </c>
       <c r="E212" t="n">
-        <v>0.009145878978081853</v>
+        <v>0.0104418373590188</v>
       </c>
     </row>
     <row r="213">
@@ -3997,16 +3997,16 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>7.858623975333716e-05</v>
+        <v>8.53776431888107e-05</v>
       </c>
       <c r="C213" t="n">
-        <v>7.858623975333716e-05</v>
+        <v>8.53776431888107e-05</v>
       </c>
       <c r="D213" t="n">
-        <v>7.858623975333716e-05</v>
+        <v>8.53776431888107e-05</v>
       </c>
       <c r="E213" t="n">
-        <v>7.858623975333716e-05</v>
+        <v>8.53776431888107e-05</v>
       </c>
     </row>
     <row r="214">
@@ -4150,16 +4150,16 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>0.0007151325642405861</v>
+        <v>0.000822775418229812</v>
       </c>
       <c r="C222" t="n">
-        <v>0.0007151325642405861</v>
+        <v>0.000822775418229812</v>
       </c>
       <c r="D222" t="n">
-        <v>0.0007151325642405861</v>
+        <v>0.000822775418229812</v>
       </c>
       <c r="E222" t="n">
-        <v>0.0007151325642405861</v>
+        <v>0.000822775418229812</v>
       </c>
     </row>
     <row r="223">
@@ -4167,16 +4167,16 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>0.008792862237562401</v>
+        <v>0.0100007068507155</v>
       </c>
       <c r="C223" t="n">
-        <v>0.008792862237562401</v>
+        <v>0.0100007068507155</v>
       </c>
       <c r="D223" t="n">
-        <v>0.008792862237562401</v>
+        <v>0.0100007068507155</v>
       </c>
       <c r="E223" t="n">
-        <v>0.008792862237562401</v>
+        <v>0.0100007068507155</v>
       </c>
     </row>
     <row r="224">
@@ -4184,16 +4184,16 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>0.04536122398120721</v>
+        <v>0.0509738823813119</v>
       </c>
       <c r="C224" t="n">
-        <v>0.04536122398120721</v>
+        <v>0.0509738823813119</v>
       </c>
       <c r="D224" t="n">
-        <v>0.04536122398120721</v>
+        <v>0.0509738823813119</v>
       </c>
       <c r="E224" t="n">
-        <v>0.04536122398120721</v>
+        <v>0.0509738823813119</v>
       </c>
     </row>
     <row r="225">
@@ -4201,16 +4201,16 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>0.1383550935826046</v>
+        <v>0.149033406362571</v>
       </c>
       <c r="C225" t="n">
-        <v>0.1383550935826046</v>
+        <v>0.149033406362571</v>
       </c>
       <c r="D225" t="n">
-        <v>0.1383550935826046</v>
+        <v>0.149033406362571</v>
       </c>
       <c r="E225" t="n">
-        <v>0.1383550935826046</v>
+        <v>0.149033406362571</v>
       </c>
     </row>
     <row r="226">
@@ -4218,16 +4218,16 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>0.2738168261652736</v>
+        <v>0.285597689568726</v>
       </c>
       <c r="C226" t="n">
-        <v>0.2738168261652736</v>
+        <v>0.285597689568726</v>
       </c>
       <c r="D226" t="n">
-        <v>0.2738168261652736</v>
+        <v>0.285597689568726</v>
       </c>
       <c r="E226" t="n">
-        <v>0.2738168261652736</v>
+        <v>0.285597689568726</v>
       </c>
     </row>
     <row r="227">
@@ -4235,16 +4235,16 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>0.4197742638818799</v>
+        <v>0.43682618809667</v>
       </c>
       <c r="C227" t="n">
-        <v>0.4197742638818799</v>
+        <v>0.43682618809667</v>
       </c>
       <c r="D227" t="n">
-        <v>0.4197742638818799</v>
+        <v>0.43682618809667</v>
       </c>
       <c r="E227" t="n">
-        <v>0.4197742638818799</v>
+        <v>0.43682618809667</v>
       </c>
     </row>
     <row r="228">
@@ -4252,16 +4252,16 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>0.5281647100325563</v>
+        <v>0.545534554649049</v>
       </c>
       <c r="C228" t="n">
-        <v>0.5281647100325563</v>
+        <v>0.545534554649049</v>
       </c>
       <c r="D228" t="n">
-        <v>0.5281647100325563</v>
+        <v>0.545534554649049</v>
       </c>
       <c r="E228" t="n">
-        <v>0.5281647100325563</v>
+        <v>0.545534554649049</v>
       </c>
     </row>
     <row r="229">
@@ -4269,16 +4269,16 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>0.5296988530002477</v>
+        <v>0.552061580941364</v>
       </c>
       <c r="C229" t="n">
-        <v>0.5296988530002477</v>
+        <v>0.552061580941364</v>
       </c>
       <c r="D229" t="n">
-        <v>0.5296988530002477</v>
+        <v>0.552061580941364</v>
       </c>
       <c r="E229" t="n">
-        <v>0.5296988530002477</v>
+        <v>0.552061580941364</v>
       </c>
     </row>
     <row r="230">
@@ -4286,16 +4286,16 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>0.5187887678065833</v>
+        <v>0.540559147284024</v>
       </c>
       <c r="C230" t="n">
-        <v>0.5187887678065833</v>
+        <v>0.540559147284024</v>
       </c>
       <c r="D230" t="n">
-        <v>0.5187887678065833</v>
+        <v>0.540559147284024</v>
       </c>
       <c r="E230" t="n">
-        <v>0.5187887678065833</v>
+        <v>0.540559147284024</v>
       </c>
     </row>
     <row r="231">
@@ -4303,16 +4303,16 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>0.4888053863125082</v>
+        <v>0.512675531754671</v>
       </c>
       <c r="C231" t="n">
-        <v>0.4888053863125082</v>
+        <v>0.512675531754671</v>
       </c>
       <c r="D231" t="n">
-        <v>0.4888053863125082</v>
+        <v>0.512675531754671</v>
       </c>
       <c r="E231" t="n">
-        <v>0.4888053863125082</v>
+        <v>0.512675531754671</v>
       </c>
     </row>
     <row r="232">
@@ -4320,16 +4320,16 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>0.3636071489188161</v>
+        <v>0.382980855854171</v>
       </c>
       <c r="C232" t="n">
-        <v>0.3636071489188161</v>
+        <v>0.382980855854171</v>
       </c>
       <c r="D232" t="n">
-        <v>0.3636071489188161</v>
+        <v>0.382980855854171</v>
       </c>
       <c r="E232" t="n">
-        <v>0.3636071489188161</v>
+        <v>0.382980855854171</v>
       </c>
     </row>
     <row r="233">
@@ -4337,16 +4337,16 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>0.2123532123821948</v>
+        <v>0.225113316722316</v>
       </c>
       <c r="C233" t="n">
-        <v>0.2123532123821948</v>
+        <v>0.225113316722316</v>
       </c>
       <c r="D233" t="n">
-        <v>0.2123532123821948</v>
+        <v>0.225113316722316</v>
       </c>
       <c r="E233" t="n">
-        <v>0.2123532123821948</v>
+        <v>0.225113316722316</v>
       </c>
     </row>
     <row r="234">
@@ -4354,16 +4354,16 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>0.1221696456784901</v>
+        <v>0.135546389358844</v>
       </c>
       <c r="C234" t="n">
-        <v>0.1221696456784901</v>
+        <v>0.135546389358844</v>
       </c>
       <c r="D234" t="n">
-        <v>0.1221696456784901</v>
+        <v>0.135546389358844</v>
       </c>
       <c r="E234" t="n">
-        <v>0.1221696456784901</v>
+        <v>0.135546389358844</v>
       </c>
     </row>
     <row r="235">
@@ -4371,16 +4371,16 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>0.04912004377481264</v>
+        <v>0.0545519378171655</v>
       </c>
       <c r="C235" t="n">
-        <v>0.04912004377481264</v>
+        <v>0.0545519378171655</v>
       </c>
       <c r="D235" t="n">
-        <v>0.04912004377481264</v>
+        <v>0.0545519378171655</v>
       </c>
       <c r="E235" t="n">
-        <v>0.04912004377481264</v>
+        <v>0.0545519378171655</v>
       </c>
     </row>
     <row r="236">
@@ -4388,16 +4388,16 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>0.009223846422546686</v>
+        <v>0.0102489486837683</v>
       </c>
       <c r="C236" t="n">
-        <v>0.009223846422546686</v>
+        <v>0.0102489486837683</v>
       </c>
       <c r="D236" t="n">
-        <v>0.009223846422546686</v>
+        <v>0.0102489486837683</v>
       </c>
       <c r="E236" t="n">
-        <v>0.009223846422546686</v>
+        <v>0.0102489486837683</v>
       </c>
     </row>
     <row r="237">
@@ -4405,16 +4405,16 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>7.772586687923374e-05</v>
+        <v>8.444291710336509e-05</v>
       </c>
       <c r="C237" t="n">
-        <v>7.772586687923374e-05</v>
+        <v>8.444291710336509e-05</v>
       </c>
       <c r="D237" t="n">
-        <v>7.772586687923374e-05</v>
+        <v>8.444291710336509e-05</v>
       </c>
       <c r="E237" t="n">
-        <v>7.772586687923374e-05</v>
+        <v>8.444291710336509e-05</v>
       </c>
     </row>
     <row r="238">
@@ -4558,16 +4558,16 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>0.0007753873966922429</v>
+        <v>0.000842396184060708</v>
       </c>
       <c r="C246" t="n">
-        <v>0.0007753873966922429</v>
+        <v>0.000842396184060708</v>
       </c>
       <c r="D246" t="n">
-        <v>0.0007753873966922429</v>
+        <v>0.000842396184060708</v>
       </c>
       <c r="E246" t="n">
-        <v>0.0007753873966922429</v>
+        <v>0.000842396184060708</v>
       </c>
     </row>
     <row r="247">
@@ -4575,16 +4575,16 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>0.009317428138714123</v>
+        <v>0.0101532005178404</v>
       </c>
       <c r="C247" t="n">
-        <v>0.009317428138714123</v>
+        <v>0.0101532005178404</v>
       </c>
       <c r="D247" t="n">
-        <v>0.009317428138714123</v>
+        <v>0.0101532005178404</v>
       </c>
       <c r="E247" t="n">
-        <v>0.009317428138714123</v>
+        <v>0.0101532005178404</v>
       </c>
     </row>
     <row r="248">
@@ -4592,16 +4592,16 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>0.04851811409869921</v>
+        <v>0.0526715231896991</v>
       </c>
       <c r="C248" t="n">
-        <v>0.04851811409869921</v>
+        <v>0.0526715231896991</v>
       </c>
       <c r="D248" t="n">
-        <v>0.04851811409869921</v>
+        <v>0.0526715231896991</v>
       </c>
       <c r="E248" t="n">
-        <v>0.04851811409869921</v>
+        <v>0.0526715231896991</v>
       </c>
     </row>
     <row r="249">
@@ -4609,16 +4609,16 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>0.1290163527799637</v>
+        <v>0.136926645245631</v>
       </c>
       <c r="C249" t="n">
-        <v>0.1290163527799637</v>
+        <v>0.136926645245631</v>
       </c>
       <c r="D249" t="n">
-        <v>0.1290163527799637</v>
+        <v>0.136926645245631</v>
       </c>
       <c r="E249" t="n">
-        <v>0.1290163527799637</v>
+        <v>0.136926645245631</v>
       </c>
     </row>
     <row r="250">
@@ -4626,16 +4626,16 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>0.2364343533819468</v>
+        <v>0.251596497569257</v>
       </c>
       <c r="C250" t="n">
-        <v>0.2364343533819468</v>
+        <v>0.251596497569257</v>
       </c>
       <c r="D250" t="n">
-        <v>0.2364343533819468</v>
+        <v>0.251596497569257</v>
       </c>
       <c r="E250" t="n">
-        <v>0.2364343533819468</v>
+        <v>0.251596497569257</v>
       </c>
     </row>
     <row r="251">
@@ -4643,16 +4643,16 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>0.3353312815197688</v>
+        <v>0.354005789180568</v>
       </c>
       <c r="C251" t="n">
-        <v>0.3353312815197688</v>
+        <v>0.354005789180568</v>
       </c>
       <c r="D251" t="n">
-        <v>0.3353312815197688</v>
+        <v>0.354005789180568</v>
       </c>
       <c r="E251" t="n">
-        <v>0.3353312815197688</v>
+        <v>0.354005789180568</v>
       </c>
     </row>
     <row r="252">
@@ -4660,16 +4660,16 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>0.4313976208278435</v>
+        <v>0.454706872628095</v>
       </c>
       <c r="C252" t="n">
-        <v>0.4313976208278435</v>
+        <v>0.454706872628095</v>
       </c>
       <c r="D252" t="n">
-        <v>0.4313976208278435</v>
+        <v>0.454706872628095</v>
       </c>
       <c r="E252" t="n">
-        <v>0.4313976208278435</v>
+        <v>0.454706872628095</v>
       </c>
     </row>
     <row r="253">
@@ -4677,16 +4677,16 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>0.4169390156533013</v>
+        <v>0.428375765115445</v>
       </c>
       <c r="C253" t="n">
-        <v>0.4169390156533013</v>
+        <v>0.428375765115445</v>
       </c>
       <c r="D253" t="n">
-        <v>0.4169390156533013</v>
+        <v>0.428375765115445</v>
       </c>
       <c r="E253" t="n">
-        <v>0.4169390156533013</v>
+        <v>0.428375765115445</v>
       </c>
     </row>
     <row r="254">
@@ -4694,16 +4694,16 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>0.394693866936708</v>
+        <v>0.400920244454656</v>
       </c>
       <c r="C254" t="n">
-        <v>0.394693866936708</v>
+        <v>0.400920244454656</v>
       </c>
       <c r="D254" t="n">
-        <v>0.394693866936708</v>
+        <v>0.400920244454656</v>
       </c>
       <c r="E254" t="n">
-        <v>0.394693866936708</v>
+        <v>0.400920244454656</v>
       </c>
     </row>
     <row r="255">
@@ -4711,16 +4711,16 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>0.3681127042504997</v>
+        <v>0.384483103750647</v>
       </c>
       <c r="C255" t="n">
-        <v>0.3681127042504997</v>
+        <v>0.384483103750647</v>
       </c>
       <c r="D255" t="n">
-        <v>0.3681127042504997</v>
+        <v>0.384483103750647</v>
       </c>
       <c r="E255" t="n">
-        <v>0.3681127042504997</v>
+        <v>0.384483103750647</v>
       </c>
     </row>
     <row r="256">
@@ -4728,16 +4728,16 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>0.3169582405514671</v>
+        <v>0.334311056120983</v>
       </c>
       <c r="C256" t="n">
-        <v>0.3169582405514671</v>
+        <v>0.334311056120983</v>
       </c>
       <c r="D256" t="n">
-        <v>0.3169582405514671</v>
+        <v>0.334311056120983</v>
       </c>
       <c r="E256" t="n">
-        <v>0.3169582405514671</v>
+        <v>0.334311056120983</v>
       </c>
     </row>
     <row r="257">
@@ -4745,16 +4745,16 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>0.2228234098949098</v>
+        <v>0.236158408402347</v>
       </c>
       <c r="C257" t="n">
-        <v>0.2228234098949098</v>
+        <v>0.236158408402347</v>
       </c>
       <c r="D257" t="n">
-        <v>0.2228234098949098</v>
+        <v>0.236158408402347</v>
       </c>
       <c r="E257" t="n">
-        <v>0.2228234098949098</v>
+        <v>0.236158408402347</v>
       </c>
     </row>
     <row r="258">
@@ -4762,16 +4762,16 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>0.1404531650704815</v>
+        <v>0.154604222473916</v>
       </c>
       <c r="C258" t="n">
-        <v>0.1404531650704815</v>
+        <v>0.154604222473916</v>
       </c>
       <c r="D258" t="n">
-        <v>0.1404531650704815</v>
+        <v>0.154604222473916</v>
       </c>
       <c r="E258" t="n">
-        <v>0.1404531650704815</v>
+        <v>0.154604222473916</v>
       </c>
     </row>
     <row r="259">
@@ -4779,16 +4779,16 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>0.05595195410869737</v>
+        <v>0.06251155997968259</v>
       </c>
       <c r="C259" t="n">
-        <v>0.05595195410869737</v>
+        <v>0.06251155997968259</v>
       </c>
       <c r="D259" t="n">
-        <v>0.05595195410869737</v>
+        <v>0.06251155997968259</v>
       </c>
       <c r="E259" t="n">
-        <v>0.05595195410869737</v>
+        <v>0.06251155997968259</v>
       </c>
     </row>
     <row r="260">
@@ -4796,16 +4796,16 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>0.009642260939624199</v>
+        <v>0.0109638356599595</v>
       </c>
       <c r="C260" t="n">
-        <v>0.009642260939624199</v>
+        <v>0.0109638356599595</v>
       </c>
       <c r="D260" t="n">
-        <v>0.009642260939624199</v>
+        <v>0.0109638356599595</v>
       </c>
       <c r="E260" t="n">
-        <v>0.009642260939624199</v>
+        <v>0.0109638356599595</v>
       </c>
     </row>
     <row r="261">
@@ -4813,16 +4813,16 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>7.508385071318909e-05</v>
+        <v>8.157257855260051e-05</v>
       </c>
       <c r="C261" t="n">
-        <v>7.508385071318909e-05</v>
+        <v>8.157257855260051e-05</v>
       </c>
       <c r="D261" t="n">
-        <v>7.508385071318909e-05</v>
+        <v>8.157257855260051e-05</v>
       </c>
       <c r="E261" t="n">
-        <v>7.508385071318909e-05</v>
+        <v>8.157257855260051e-05</v>
       </c>
     </row>
     <row r="262">
@@ -4966,16 +4966,16 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>0.000805642229143901</v>
+        <v>0.000936088987510908</v>
       </c>
       <c r="C270" t="n">
-        <v>0.000805642229143901</v>
+        <v>0.000936088987510908</v>
       </c>
       <c r="D270" t="n">
-        <v>0.000805642229143901</v>
+        <v>0.000936088987510908</v>
       </c>
       <c r="E270" t="n">
-        <v>0.000805642229143901</v>
+        <v>0.000936088987510908</v>
       </c>
     </row>
     <row r="271">
@@ -4983,16 +4983,16 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>0.01079157175011446</v>
+        <v>0.0122603259544166</v>
       </c>
       <c r="C271" t="n">
-        <v>0.01079157175011446</v>
+        <v>0.0122603259544166</v>
       </c>
       <c r="D271" t="n">
-        <v>0.01079157175011446</v>
+        <v>0.0122603259544166</v>
       </c>
       <c r="E271" t="n">
-        <v>0.01079157175011446</v>
+        <v>0.0122603259544166</v>
       </c>
     </row>
     <row r="272">
@@ -5000,16 +5000,16 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>0.05202775684674393</v>
+        <v>0.0581676222383987</v>
       </c>
       <c r="C272" t="n">
-        <v>0.05202775684674393</v>
+        <v>0.0581676222383987</v>
       </c>
       <c r="D272" t="n">
-        <v>0.05202775684674393</v>
+        <v>0.0581676222383987</v>
       </c>
       <c r="E272" t="n">
-        <v>0.05202775684674393</v>
+        <v>0.0581676222383987</v>
       </c>
     </row>
     <row r="273">
@@ -5017,16 +5017,16 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>0.136867651461034</v>
+        <v>0.1476003271139</v>
       </c>
       <c r="C273" t="n">
-        <v>0.136867651461034</v>
+        <v>0.1476003271139</v>
       </c>
       <c r="D273" t="n">
-        <v>0.136867651461034</v>
+        <v>0.1476003271139</v>
       </c>
       <c r="E273" t="n">
-        <v>0.136867651461034</v>
+        <v>0.1476003271139</v>
       </c>
     </row>
     <row r="274">
@@ -5034,16 +5034,16 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>0.2696724040131354</v>
+        <v>0.283871400433168</v>
       </c>
       <c r="C274" t="n">
-        <v>0.2696724040131354</v>
+        <v>0.283871400433168</v>
       </c>
       <c r="D274" t="n">
-        <v>0.2696724040131354</v>
+        <v>0.283871400433168</v>
       </c>
       <c r="E274" t="n">
-        <v>0.2696724040131354</v>
+        <v>0.283871400433168</v>
       </c>
     </row>
     <row r="275">
@@ -5051,16 +5051,16 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>0.38033836994139</v>
+        <v>0.400131810960113</v>
       </c>
       <c r="C275" t="n">
-        <v>0.38033836994139</v>
+        <v>0.400131810960113</v>
       </c>
       <c r="D275" t="n">
-        <v>0.38033836994139</v>
+        <v>0.400131810960113</v>
       </c>
       <c r="E275" t="n">
-        <v>0.38033836994139</v>
+        <v>0.400131810960113</v>
       </c>
     </row>
     <row r="276">
@@ -5068,16 +5068,16 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>0.4333972432591674</v>
+        <v>0.459917196203896</v>
       </c>
       <c r="C276" t="n">
-        <v>0.4333972432591674</v>
+        <v>0.459917196203896</v>
       </c>
       <c r="D276" t="n">
-        <v>0.4333972432591674</v>
+        <v>0.459917196203896</v>
       </c>
       <c r="E276" t="n">
-        <v>0.4333972432591674</v>
+        <v>0.459917196203896</v>
       </c>
     </row>
     <row r="277">
@@ -5085,16 +5085,16 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>0.4513843153942239</v>
+        <v>0.46431723477805</v>
       </c>
       <c r="C277" t="n">
-        <v>0.4513843153942239</v>
+        <v>0.46431723477805</v>
       </c>
       <c r="D277" t="n">
-        <v>0.4513843153942239</v>
+        <v>0.46431723477805</v>
       </c>
       <c r="E277" t="n">
-        <v>0.4513843153942239</v>
+        <v>0.46431723477805</v>
       </c>
     </row>
     <row r="278">
@@ -5102,16 +5102,16 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>0.4447040604695037</v>
+        <v>0.456413612936919</v>
       </c>
       <c r="C278" t="n">
-        <v>0.4447040604695037</v>
+        <v>0.456413612936919</v>
       </c>
       <c r="D278" t="n">
-        <v>0.4447040604695037</v>
+        <v>0.456413612936919</v>
       </c>
       <c r="E278" t="n">
-        <v>0.4447040604695037</v>
+        <v>0.456413612936919</v>
       </c>
     </row>
     <row r="279">
@@ -5119,16 +5119,16 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>0.4127684263638187</v>
+        <v>0.429908946275284</v>
       </c>
       <c r="C279" t="n">
-        <v>0.4127684263638187</v>
+        <v>0.429908946275284</v>
       </c>
       <c r="D279" t="n">
-        <v>0.4127684263638187</v>
+        <v>0.429908946275284</v>
       </c>
       <c r="E279" t="n">
-        <v>0.4127684263638187</v>
+        <v>0.429908946275284</v>
       </c>
     </row>
     <row r="280">
@@ -5136,16 +5136,16 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>0.3192314507877084</v>
+        <v>0.333613233705222</v>
       </c>
       <c r="C280" t="n">
-        <v>0.3192314507877084</v>
+        <v>0.333613233705222</v>
       </c>
       <c r="D280" t="n">
-        <v>0.3192314507877084</v>
+        <v>0.333613233705222</v>
       </c>
       <c r="E280" t="n">
-        <v>0.3192314507877084</v>
+        <v>0.333613233705222</v>
       </c>
     </row>
     <row r="281">
@@ -5153,16 +5153,16 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>0.2403502156762481</v>
+        <v>0.254502964825907</v>
       </c>
       <c r="C281" t="n">
-        <v>0.2403502156762481</v>
+        <v>0.254502964825907</v>
       </c>
       <c r="D281" t="n">
-        <v>0.2403502156762481</v>
+        <v>0.254502964825907</v>
       </c>
       <c r="E281" t="n">
-        <v>0.2403502156762481</v>
+        <v>0.254502964825907</v>
       </c>
     </row>
     <row r="282">
@@ -5170,16 +5170,16 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>0.1294731988078514</v>
+        <v>0.142784344266852</v>
       </c>
       <c r="C282" t="n">
-        <v>0.1294731988078514</v>
+        <v>0.142784344266852</v>
       </c>
       <c r="D282" t="n">
-        <v>0.1294731988078514</v>
+        <v>0.142784344266852</v>
       </c>
       <c r="E282" t="n">
-        <v>0.1294731988078514</v>
+        <v>0.142784344266852</v>
       </c>
     </row>
     <row r="283">
@@ -5187,16 +5187,16 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>0.0496995542170086</v>
+        <v>0.0557174709958555</v>
       </c>
       <c r="C283" t="n">
-        <v>0.0496995542170086</v>
+        <v>0.0557174709958555</v>
       </c>
       <c r="D283" t="n">
-        <v>0.0496995542170086</v>
+        <v>0.0557174709958555</v>
       </c>
       <c r="E283" t="n">
-        <v>0.0496995542170086</v>
+        <v>0.0557174709958555</v>
       </c>
     </row>
     <row r="284">
@@ -5204,16 +5204,16 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>0.009432881348342238</v>
+        <v>0.0107360541450679</v>
       </c>
       <c r="C284" t="n">
-        <v>0.009432881348342238</v>
+        <v>0.0107360541450679</v>
       </c>
       <c r="D284" t="n">
-        <v>0.009432881348342238</v>
+        <v>0.0107360541450679</v>
       </c>
       <c r="E284" t="n">
-        <v>0.009432881348342238</v>
+        <v>0.0107360541450679</v>
       </c>
     </row>
     <row r="285">
@@ -5221,16 +5221,16 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>0.0003850904068297801</v>
+        <v>0.000418369824703959</v>
       </c>
       <c r="C285" t="n">
-        <v>0.0003850904068297801</v>
+        <v>0.000418369824703959</v>
       </c>
       <c r="D285" t="n">
-        <v>0.0003850904068297801</v>
+        <v>0.000418369824703959</v>
       </c>
       <c r="E285" t="n">
-        <v>0.0003850904068297801</v>
+        <v>0.000418369824703959</v>
       </c>
     </row>
     <row r="286">
@@ -5374,16 +5374,16 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>0.001386069444674479</v>
+        <v>0.00156198971720616</v>
       </c>
       <c r="C294" t="n">
-        <v>0.001386069444674479</v>
+        <v>0.00156198971720616</v>
       </c>
       <c r="D294" t="n">
-        <v>0.001386069444674479</v>
+        <v>0.00156198971720616</v>
       </c>
       <c r="E294" t="n">
-        <v>0.001386069444674479</v>
+        <v>0.00156198971720616</v>
       </c>
     </row>
     <row r="295">
@@ -5391,16 +5391,16 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>0.01534658954916115</v>
+        <v>0.017184349790899</v>
       </c>
       <c r="C295" t="n">
-        <v>0.01534658954916115</v>
+        <v>0.017184349790899</v>
       </c>
       <c r="D295" t="n">
-        <v>0.01534658954916115</v>
+        <v>0.017184349790899</v>
       </c>
       <c r="E295" t="n">
-        <v>0.01534658954916115</v>
+        <v>0.017184349790899</v>
       </c>
     </row>
     <row r="296">
@@ -5408,16 +5408,16 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>0.06909969816576404</v>
+        <v>0.0757977856261942</v>
       </c>
       <c r="C296" t="n">
-        <v>0.06909969816576404</v>
+        <v>0.0757977856261942</v>
       </c>
       <c r="D296" t="n">
-        <v>0.06909969816576404</v>
+        <v>0.0757977856261942</v>
       </c>
       <c r="E296" t="n">
-        <v>0.06909969816576404</v>
+        <v>0.0757977856261942</v>
       </c>
     </row>
     <row r="297">
@@ -5425,16 +5425,16 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>0.173057536372578</v>
+        <v>0.187434925881371</v>
       </c>
       <c r="C297" t="n">
-        <v>0.173057536372578</v>
+        <v>0.187434925881371</v>
       </c>
       <c r="D297" t="n">
-        <v>0.173057536372578</v>
+        <v>0.187434925881371</v>
       </c>
       <c r="E297" t="n">
-        <v>0.173057536372578</v>
+        <v>0.187434925881371</v>
       </c>
     </row>
     <row r="298">
@@ -5442,16 +5442,16 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>0.3065113261782759</v>
+        <v>0.328157977570049</v>
       </c>
       <c r="C298" t="n">
-        <v>0.3065113261782759</v>
+        <v>0.328157977570049</v>
       </c>
       <c r="D298" t="n">
-        <v>0.3065113261782759</v>
+        <v>0.328157977570049</v>
       </c>
       <c r="E298" t="n">
-        <v>0.3065113261782759</v>
+        <v>0.328157977570049</v>
       </c>
     </row>
     <row r="299">
@@ -5459,16 +5459,16 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>0.4285362721223244</v>
+        <v>0.449681314522127</v>
       </c>
       <c r="C299" t="n">
-        <v>0.4285362721223244</v>
+        <v>0.449681314522127</v>
       </c>
       <c r="D299" t="n">
-        <v>0.4285362721223244</v>
+        <v>0.449681314522127</v>
       </c>
       <c r="E299" t="n">
-        <v>0.4285362721223244</v>
+        <v>0.449681314522127</v>
       </c>
     </row>
     <row r="300">
@@ -5476,16 +5476,16 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>0.5402322224256962</v>
+        <v>0.5535846794186851</v>
       </c>
       <c r="C300" t="n">
-        <v>0.5402322224256962</v>
+        <v>0.5535846794186851</v>
       </c>
       <c r="D300" t="n">
-        <v>0.5402322224256962</v>
+        <v>0.5535846794186851</v>
       </c>
       <c r="E300" t="n">
-        <v>0.5402322224256962</v>
+        <v>0.5535846794186851</v>
       </c>
     </row>
     <row r="301">
@@ -5493,16 +5493,16 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>0.5661976105686323</v>
+        <v>0.57368156005412</v>
       </c>
       <c r="C301" t="n">
-        <v>0.5661976105686323</v>
+        <v>0.57368156005412</v>
       </c>
       <c r="D301" t="n">
-        <v>0.5661976105686323</v>
+        <v>0.57368156005412</v>
       </c>
       <c r="E301" t="n">
-        <v>0.5661976105686323</v>
+        <v>0.57368156005412</v>
       </c>
     </row>
     <row r="302">
@@ -5510,16 +5510,16 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>0.5228218231999311</v>
+        <v>0.529675202180382</v>
       </c>
       <c r="C302" t="n">
-        <v>0.5228218231999311</v>
+        <v>0.529675202180382</v>
       </c>
       <c r="D302" t="n">
-        <v>0.5228218231999311</v>
+        <v>0.529675202180382</v>
       </c>
       <c r="E302" t="n">
-        <v>0.5228218231999311</v>
+        <v>0.529675202180382</v>
       </c>
     </row>
     <row r="303">
@@ -5527,16 +5527,16 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>0.4489896987291566</v>
+        <v>0.457697757018056</v>
       </c>
       <c r="C303" t="n">
-        <v>0.4489896987291566</v>
+        <v>0.457697757018056</v>
       </c>
       <c r="D303" t="n">
-        <v>0.4489896987291566</v>
+        <v>0.457697757018056</v>
       </c>
       <c r="E303" t="n">
-        <v>0.4489896987291566</v>
+        <v>0.457697757018056</v>
       </c>
     </row>
     <row r="304">
@@ -5544,16 +5544,16 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>0.3837740368706687</v>
+        <v>0.397898408542382</v>
       </c>
       <c r="C304" t="n">
-        <v>0.3837740368706687</v>
+        <v>0.397898408542382</v>
       </c>
       <c r="D304" t="n">
-        <v>0.3837740368706687</v>
+        <v>0.397898408542382</v>
       </c>
       <c r="E304" t="n">
-        <v>0.3837740368706687</v>
+        <v>0.397898408542382</v>
       </c>
     </row>
     <row r="305">
@@ -5561,16 +5561,16 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>0.2785840303084381</v>
+        <v>0.295603646816113</v>
       </c>
       <c r="C305" t="n">
-        <v>0.2785840303084381</v>
+        <v>0.295603646816113</v>
       </c>
       <c r="D305" t="n">
-        <v>0.2785840303084381</v>
+        <v>0.295603646816113</v>
       </c>
       <c r="E305" t="n">
-        <v>0.2785840303084381</v>
+        <v>0.295603646816113</v>
       </c>
     </row>
     <row r="306">
@@ -5578,16 +5578,16 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>0.15436744633585</v>
+        <v>0.169948361178005</v>
       </c>
       <c r="C306" t="n">
-        <v>0.15436744633585</v>
+        <v>0.169948361178005</v>
       </c>
       <c r="D306" t="n">
-        <v>0.15436744633585</v>
+        <v>0.169948361178005</v>
       </c>
       <c r="E306" t="n">
-        <v>0.15436744633585</v>
+        <v>0.169948361178005</v>
       </c>
     </row>
     <row r="307">
@@ -5595,16 +5595,16 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>0.05551349269785863</v>
+        <v>0.0620053988171496</v>
       </c>
       <c r="C307" t="n">
-        <v>0.05551349269785863</v>
+        <v>0.0620053988171496</v>
       </c>
       <c r="D307" t="n">
-        <v>0.05551349269785863</v>
+        <v>0.0620053988171496</v>
       </c>
       <c r="E307" t="n">
-        <v>0.05551349269785863</v>
+        <v>0.0620053988171496</v>
       </c>
     </row>
     <row r="308">
@@ -5612,16 +5612,16 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>0.0105337476489031</v>
+        <v>0.0119258193331989</v>
       </c>
       <c r="C308" t="n">
-        <v>0.0105337476489031</v>
+        <v>0.0119258193331989</v>
       </c>
       <c r="D308" t="n">
-        <v>0.0105337476489031</v>
+        <v>0.0119258193331989</v>
       </c>
       <c r="E308" t="n">
-        <v>0.0105337476489031</v>
+        <v>0.0119258193331989</v>
       </c>
     </row>
     <row r="309">
@@ -5629,16 +5629,16 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>0.0003920586463838355</v>
+        <v>0.000425940257799723</v>
       </c>
       <c r="C309" t="n">
-        <v>0.0003920586463838355</v>
+        <v>0.000425940257799723</v>
       </c>
       <c r="D309" t="n">
-        <v>0.0003920586463838355</v>
+        <v>0.000425940257799723</v>
       </c>
       <c r="E309" t="n">
-        <v>0.0003920586463838355</v>
+        <v>0.000425940257799723</v>
       </c>
     </row>
     <row r="310">
@@ -5782,16 +5782,16 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>0.001354126032753929</v>
+        <v>0.00147114927015242</v>
       </c>
       <c r="C318" t="n">
-        <v>0.001354126032753929</v>
+        <v>0.00147114927015242</v>
       </c>
       <c r="D318" t="n">
-        <v>0.001354126032753929</v>
+        <v>0.00147114927015242</v>
       </c>
       <c r="E318" t="n">
-        <v>0.001354126032753929</v>
+        <v>0.00147114927015242</v>
       </c>
     </row>
     <row r="319">
@@ -5799,16 +5799,16 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>0.01596296126210854</v>
+        <v>0.0173597162276858</v>
       </c>
       <c r="C319" t="n">
-        <v>0.01596296126210854</v>
+        <v>0.0173597162276858</v>
       </c>
       <c r="D319" t="n">
-        <v>0.01596296126210854</v>
+        <v>0.0173597162276858</v>
       </c>
       <c r="E319" t="n">
-        <v>0.01596296126210854</v>
+        <v>0.0173597162276858</v>
       </c>
     </row>
     <row r="320">
@@ -5816,16 +5816,16 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>0.07793940376721617</v>
+        <v>0.08505714981525619</v>
       </c>
       <c r="C320" t="n">
-        <v>0.07793940376721617</v>
+        <v>0.08505714981525619</v>
       </c>
       <c r="D320" t="n">
-        <v>0.07793940376721617</v>
+        <v>0.08505714981525619</v>
       </c>
       <c r="E320" t="n">
-        <v>0.07793940376721617</v>
+        <v>0.08505714981525619</v>
       </c>
     </row>
     <row r="321">
@@ -5833,16 +5833,16 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>0.1947540080450683</v>
+        <v>0.213415700450201</v>
       </c>
       <c r="C321" t="n">
-        <v>0.1947540080450683</v>
+        <v>0.213415700450201</v>
       </c>
       <c r="D321" t="n">
-        <v>0.1947540080450683</v>
+        <v>0.213415700450201</v>
       </c>
       <c r="E321" t="n">
-        <v>0.1947540080450683</v>
+        <v>0.213415700450201</v>
       </c>
     </row>
     <row r="322">
@@ -5850,16 +5850,16 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>0.3357378557275091</v>
+        <v>0.363137586102192</v>
       </c>
       <c r="C322" t="n">
-        <v>0.3357378557275091</v>
+        <v>0.363137586102192</v>
       </c>
       <c r="D322" t="n">
-        <v>0.3357378557275091</v>
+        <v>0.363137586102192</v>
       </c>
       <c r="E322" t="n">
-        <v>0.3357378557275091</v>
+        <v>0.363137586102192</v>
       </c>
     </row>
     <row r="323">
@@ -5867,16 +5867,16 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>0.4759168891788605</v>
+        <v>0.506689525160505</v>
       </c>
       <c r="C323" t="n">
-        <v>0.4759168891788605</v>
+        <v>0.506689525160505</v>
       </c>
       <c r="D323" t="n">
-        <v>0.4759168891788605</v>
+        <v>0.506689525160505</v>
       </c>
       <c r="E323" t="n">
-        <v>0.4759168891788605</v>
+        <v>0.506689525160505</v>
       </c>
     </row>
     <row r="324">
@@ -5884,16 +5884,16 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>0.5507446203916658</v>
+        <v>0.580621238760177</v>
       </c>
       <c r="C324" t="n">
-        <v>0.5507446203916658</v>
+        <v>0.580621238760177</v>
       </c>
       <c r="D324" t="n">
-        <v>0.5507446203916658</v>
+        <v>0.580621238760177</v>
       </c>
       <c r="E324" t="n">
-        <v>0.5507446203916658</v>
+        <v>0.580621238760177</v>
       </c>
     </row>
     <row r="325">
@@ -5901,16 +5901,16 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>0.5966155862712125</v>
+        <v>0.62725816648661</v>
       </c>
       <c r="C325" t="n">
-        <v>0.5966155862712125</v>
+        <v>0.62725816648661</v>
       </c>
       <c r="D325" t="n">
-        <v>0.5966155862712125</v>
+        <v>0.62725816648661</v>
       </c>
       <c r="E325" t="n">
-        <v>0.5966155862712125</v>
+        <v>0.62725816648661</v>
       </c>
     </row>
     <row r="326">
@@ -5918,16 +5918,16 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>0.5961964856150797</v>
+        <v>0.628416752854682</v>
       </c>
       <c r="C326" t="n">
-        <v>0.5961964856150797</v>
+        <v>0.628416752854682</v>
       </c>
       <c r="D326" t="n">
-        <v>0.5961964856150797</v>
+        <v>0.628416752854682</v>
       </c>
       <c r="E326" t="n">
-        <v>0.5961964856150797</v>
+        <v>0.628416752854682</v>
       </c>
     </row>
     <row r="327">
@@ -5935,16 +5935,16 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>0.5308546602205161</v>
+        <v>0.561531215029514</v>
       </c>
       <c r="C327" t="n">
-        <v>0.5308546602205161</v>
+        <v>0.561531215029514</v>
       </c>
       <c r="D327" t="n">
-        <v>0.5308546602205161</v>
+        <v>0.561531215029514</v>
       </c>
       <c r="E327" t="n">
-        <v>0.5308546602205161</v>
+        <v>0.561531215029514</v>
       </c>
     </row>
     <row r="328">
@@ -5952,16 +5952,16 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>0.4363509674919417</v>
+        <v>0.465769488155416</v>
       </c>
       <c r="C328" t="n">
-        <v>0.4363509674919417</v>
+        <v>0.465769488155416</v>
       </c>
       <c r="D328" t="n">
-        <v>0.4363509674919417</v>
+        <v>0.465769488155416</v>
       </c>
       <c r="E328" t="n">
-        <v>0.4363509674919417</v>
+        <v>0.465769488155416</v>
       </c>
     </row>
     <row r="329">
@@ -5969,16 +5969,16 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>0.3079930179604025</v>
+        <v>0.332820565809033</v>
       </c>
       <c r="C329" t="n">
-        <v>0.3079930179604025</v>
+        <v>0.332820565809033</v>
       </c>
       <c r="D329" t="n">
-        <v>0.3079930179604025</v>
+        <v>0.332820565809033</v>
       </c>
       <c r="E329" t="n">
-        <v>0.3079930179604025</v>
+        <v>0.332820565809033</v>
       </c>
     </row>
     <row r="330">
@@ -5986,16 +5986,16 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>0.180695501369257</v>
+        <v>0.199843591998984</v>
       </c>
       <c r="C330" t="n">
-        <v>0.180695501369257</v>
+        <v>0.199843591998984</v>
       </c>
       <c r="D330" t="n">
-        <v>0.180695501369257</v>
+        <v>0.199843591998984</v>
       </c>
       <c r="E330" t="n">
-        <v>0.180695501369257</v>
+        <v>0.199843591998984</v>
       </c>
     </row>
     <row r="331">
@@ -6003,16 +6003,16 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>0.06575022020305762</v>
+        <v>0.0728270717691645</v>
       </c>
       <c r="C331" t="n">
-        <v>0.06575022020305762</v>
+        <v>0.0728270717691645</v>
       </c>
       <c r="D331" t="n">
-        <v>0.06575022020305762</v>
+        <v>0.0728270717691645</v>
       </c>
       <c r="E331" t="n">
-        <v>0.06575022020305762</v>
+        <v>0.0728270717691645</v>
       </c>
     </row>
     <row r="332">
@@ -6020,16 +6020,16 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>0.01392619915348727</v>
+        <v>0.0155605384490519</v>
       </c>
       <c r="C332" t="n">
-        <v>0.01392619915348727</v>
+        <v>0.0155605384490519</v>
       </c>
       <c r="D332" t="n">
-        <v>0.01392619915348727</v>
+        <v>0.0155605384490519</v>
       </c>
       <c r="E332" t="n">
-        <v>0.01392619915348727</v>
+        <v>0.0155605384490519</v>
       </c>
     </row>
     <row r="333">
@@ -6037,16 +6037,16 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>0.0003920586463838355</v>
+        <v>0.000425940257799723</v>
       </c>
       <c r="C333" t="n">
-        <v>0.0003920586463838355</v>
+        <v>0.000425940257799723</v>
       </c>
       <c r="D333" t="n">
-        <v>0.0003920586463838355</v>
+        <v>0.000425940257799723</v>
       </c>
       <c r="E333" t="n">
-        <v>0.0003920586463838355</v>
+        <v>0.000425940257799723</v>
       </c>
     </row>
     <row r="334">
@@ -6190,16 +6190,16 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>0</v>
+        <v>0.000535770489846733</v>
       </c>
       <c r="C342" t="n">
-        <v>0</v>
+        <v>0.000535770489846733</v>
       </c>
       <c r="D342" t="n">
-        <v>0</v>
+        <v>0.000535770489846733</v>
       </c>
       <c r="E342" t="n">
-        <v>0</v>
+        <v>0.000535770489846733</v>
       </c>
     </row>
     <row r="343">
@@ -6207,16 +6207,16 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>0</v>
+        <v>0.0131444691038342</v>
       </c>
       <c r="C343" t="n">
-        <v>0</v>
+        <v>0.0131444691038342</v>
       </c>
       <c r="D343" t="n">
-        <v>0</v>
+        <v>0.0131444691038342</v>
       </c>
       <c r="E343" t="n">
-        <v>0</v>
+        <v>0.0131444691038342</v>
       </c>
     </row>
     <row r="344">
@@ -6224,16 +6224,16 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>0</v>
+        <v>0.0709509296148874</v>
       </c>
       <c r="C344" t="n">
-        <v>0</v>
+        <v>0.0709509296148874</v>
       </c>
       <c r="D344" t="n">
-        <v>0</v>
+        <v>0.0709509296148874</v>
       </c>
       <c r="E344" t="n">
-        <v>0</v>
+        <v>0.0709509296148874</v>
       </c>
     </row>
     <row r="345">
@@ -6241,16 +6241,16 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>0.00913221464517131</v>
+        <v>0.185206505455949</v>
       </c>
       <c r="C345" t="n">
-        <v>0.00913221464517131</v>
+        <v>0.185206505455949</v>
       </c>
       <c r="D345" t="n">
-        <v>0.00913221464517131</v>
+        <v>0.185206505455949</v>
       </c>
       <c r="E345" t="n">
-        <v>0.00913221464517131</v>
+        <v>0.185206505455949</v>
       </c>
     </row>
     <row r="346">
@@ -6258,16 +6258,16 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>0.04786880021410985</v>
+        <v>0.318173385573932</v>
       </c>
       <c r="C346" t="n">
-        <v>0.04786880021410985</v>
+        <v>0.318173385573932</v>
       </c>
       <c r="D346" t="n">
-        <v>0.04786880021410985</v>
+        <v>0.318173385573932</v>
       </c>
       <c r="E346" t="n">
-        <v>0.04786880021410985</v>
+        <v>0.318173385573932</v>
       </c>
     </row>
     <row r="347">
@@ -6275,16 +6275,16 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>0.1156972963770067</v>
+        <v>0.381425474739827</v>
       </c>
       <c r="C347" t="n">
-        <v>0.1156972963770067</v>
+        <v>0.381425474739827</v>
       </c>
       <c r="D347" t="n">
-        <v>0.1156972963770067</v>
+        <v>0.381425474739827</v>
       </c>
       <c r="E347" t="n">
-        <v>0.1156972963770067</v>
+        <v>0.381425474739827</v>
       </c>
     </row>
     <row r="348">
@@ -6292,16 +6292,16 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>0.1649070942423197</v>
+        <v>0.449856819988044</v>
       </c>
       <c r="C348" t="n">
-        <v>0.1649070942423197</v>
+        <v>0.449856819988044</v>
       </c>
       <c r="D348" t="n">
-        <v>0.1649070942423197</v>
+        <v>0.449856819988044</v>
       </c>
       <c r="E348" t="n">
-        <v>0.1649070942423197</v>
+        <v>0.449856819988044</v>
       </c>
     </row>
     <row r="349">
@@ -6309,16 +6309,16 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>0.1842303996838445</v>
+        <v>0.418872648124647</v>
       </c>
       <c r="C349" t="n">
-        <v>0.1842303996838445</v>
+        <v>0.418872648124647</v>
       </c>
       <c r="D349" t="n">
-        <v>0.1842303996838445</v>
+        <v>0.418872648124647</v>
       </c>
       <c r="E349" t="n">
-        <v>0.1842303996838445</v>
+        <v>0.418872648124647</v>
       </c>
     </row>
     <row r="350">
@@ -6326,16 +6326,16 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>0.1881736081081648</v>
+        <v>0.408783814709565</v>
       </c>
       <c r="C350" t="n">
-        <v>0.1881736081081648</v>
+        <v>0.408783814709565</v>
       </c>
       <c r="D350" t="n">
-        <v>0.1881736081081648</v>
+        <v>0.408783814709565</v>
       </c>
       <c r="E350" t="n">
-        <v>0.1881736081081648</v>
+        <v>0.408783814709565</v>
       </c>
     </row>
     <row r="351">
@@ -6343,16 +6343,16 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>0.1333728307518585</v>
+        <v>0.434151130328893</v>
       </c>
       <c r="C351" t="n">
-        <v>0.1333728307518585</v>
+        <v>0.434151130328893</v>
       </c>
       <c r="D351" t="n">
-        <v>0.1333728307518585</v>
+        <v>0.434151130328893</v>
       </c>
       <c r="E351" t="n">
-        <v>0.1333728307518585</v>
+        <v>0.434151130328893</v>
       </c>
     </row>
     <row r="352">
@@ -6360,16 +6360,16 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>0.09892262052618453</v>
+        <v>0.401819669919642</v>
       </c>
       <c r="C352" t="n">
-        <v>0.09892262052618453</v>
+        <v>0.401819669919642</v>
       </c>
       <c r="D352" t="n">
-        <v>0.09892262052618453</v>
+        <v>0.401819669919642</v>
       </c>
       <c r="E352" t="n">
-        <v>0.09892262052618453</v>
+        <v>0.401819669919642</v>
       </c>
     </row>
     <row r="353">
@@ -6377,16 +6377,16 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>0.04344325831243306</v>
+        <v>0.266701101136879</v>
       </c>
       <c r="C353" t="n">
-        <v>0.04344325831243306</v>
+        <v>0.266701101136879</v>
       </c>
       <c r="D353" t="n">
-        <v>0.04344325831243306</v>
+        <v>0.266701101136879</v>
       </c>
       <c r="E353" t="n">
-        <v>0.04344325831243306</v>
+        <v>0.266701101136879</v>
       </c>
     </row>
     <row r="354">
@@ -6394,16 +6394,16 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>0.006531539880233027</v>
+        <v>0.187058250240295</v>
       </c>
       <c r="C354" t="n">
-        <v>0.006531539880233027</v>
+        <v>0.187058250240295</v>
       </c>
       <c r="D354" t="n">
-        <v>0.006531539880233027</v>
+        <v>0.187058250240295</v>
       </c>
       <c r="E354" t="n">
-        <v>0.006531539880233027</v>
+        <v>0.187058250240295</v>
       </c>
     </row>
     <row r="355">
@@ -6411,16 +6411,16 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>0</v>
+        <v>0.0791669312586005</v>
       </c>
       <c r="C355" t="n">
-        <v>0</v>
+        <v>0.0791669312586005</v>
       </c>
       <c r="D355" t="n">
-        <v>0</v>
+        <v>0.0791669312586005</v>
       </c>
       <c r="E355" t="n">
-        <v>0</v>
+        <v>0.0791669312586005</v>
       </c>
     </row>
     <row r="356">
@@ -6428,16 +6428,16 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>0</v>
+        <v>0.0205259190498793</v>
       </c>
       <c r="C356" t="n">
-        <v>0</v>
+        <v>0.0205259190498793</v>
       </c>
       <c r="D356" t="n">
-        <v>0</v>
+        <v>0.0205259190498793</v>
       </c>
       <c r="E356" t="n">
-        <v>0</v>
+        <v>0.0205259190498793</v>
       </c>
     </row>
     <row r="357">
@@ -6445,16 +6445,16 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>0</v>
+        <v>0.00192969856397366</v>
       </c>
       <c r="C357" t="n">
-        <v>0</v>
+        <v>0.00192969856397366</v>
       </c>
       <c r="D357" t="n">
-        <v>0</v>
+        <v>0.00192969856397366</v>
       </c>
       <c r="E357" t="n">
-        <v>0</v>
+        <v>0.00192969856397366</v>
       </c>
     </row>
     <row r="358">
@@ -6598,16 +6598,16 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>0</v>
+        <v>0.00179433518765443</v>
       </c>
       <c r="C366" t="n">
-        <v>0</v>
+        <v>0.00179433518765443</v>
       </c>
       <c r="D366" t="n">
-        <v>0</v>
+        <v>0.00179433518765443</v>
       </c>
       <c r="E366" t="n">
-        <v>0</v>
+        <v>0.00179433518765443</v>
       </c>
     </row>
     <row r="367">
@@ -6615,16 +6615,16 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>0</v>
+        <v>0.0152590264070105</v>
       </c>
       <c r="C367" t="n">
-        <v>0</v>
+        <v>0.0152590264070105</v>
       </c>
       <c r="D367" t="n">
-        <v>0</v>
+        <v>0.0152590264070105</v>
       </c>
       <c r="E367" t="n">
-        <v>0</v>
+        <v>0.0152590264070105</v>
       </c>
     </row>
     <row r="368">
@@ -6632,16 +6632,16 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>0</v>
+        <v>0.070097333072563</v>
       </c>
       <c r="C368" t="n">
-        <v>0</v>
+        <v>0.070097333072563</v>
       </c>
       <c r="D368" t="n">
-        <v>0</v>
+        <v>0.070097333072563</v>
       </c>
       <c r="E368" t="n">
-        <v>0</v>
+        <v>0.070097333072563</v>
       </c>
     </row>
     <row r="369">
@@ -6649,16 +6649,16 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>0.007746344690972695</v>
+        <v>0.170842086124622</v>
       </c>
       <c r="C369" t="n">
-        <v>0.007746344690972695</v>
+        <v>0.170842086124622</v>
       </c>
       <c r="D369" t="n">
-        <v>0.007746344690972695</v>
+        <v>0.170842086124622</v>
       </c>
       <c r="E369" t="n">
-        <v>0.007746344690972695</v>
+        <v>0.170842086124622</v>
       </c>
     </row>
     <row r="370">
@@ -6666,16 +6666,16 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>0.04554012927022841</v>
+        <v>0.30699044341697</v>
       </c>
       <c r="C370" t="n">
-        <v>0.04554012927022841</v>
+        <v>0.30699044341697</v>
       </c>
       <c r="D370" t="n">
-        <v>0.04554012927022841</v>
+        <v>0.30699044341697</v>
       </c>
       <c r="E370" t="n">
-        <v>0.04554012927022841</v>
+        <v>0.30699044341697</v>
       </c>
     </row>
     <row r="371">
@@ -6683,16 +6683,16 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>0.123421267596457</v>
+        <v>0.392983794019897</v>
       </c>
       <c r="C371" t="n">
-        <v>0.123421267596457</v>
+        <v>0.392983794019897</v>
       </c>
       <c r="D371" t="n">
-        <v>0.123421267596457</v>
+        <v>0.392983794019897</v>
       </c>
       <c r="E371" t="n">
-        <v>0.123421267596457</v>
+        <v>0.392983794019897</v>
       </c>
     </row>
     <row r="372">
@@ -6700,16 +6700,16 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>0.1879556223081297</v>
+        <v>0.44635283704708</v>
       </c>
       <c r="C372" t="n">
-        <v>0.1879556223081297</v>
+        <v>0.44635283704708</v>
       </c>
       <c r="D372" t="n">
-        <v>0.1879556223081297</v>
+        <v>0.44635283704708</v>
       </c>
       <c r="E372" t="n">
-        <v>0.1879556223081297</v>
+        <v>0.44635283704708</v>
       </c>
     </row>
     <row r="373">
@@ -6717,16 +6717,16 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>0.2235675829156793</v>
+        <v>0.454553541133241</v>
       </c>
       <c r="C373" t="n">
-        <v>0.2235675829156793</v>
+        <v>0.454553541133241</v>
       </c>
       <c r="D373" t="n">
-        <v>0.2235675829156793</v>
+        <v>0.454553541133241</v>
       </c>
       <c r="E373" t="n">
-        <v>0.2235675829156793</v>
+        <v>0.454553541133241</v>
       </c>
     </row>
     <row r="374">
@@ -6734,16 +6734,16 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>0.2213340807177036</v>
+        <v>0.464689221924535</v>
       </c>
       <c r="C374" t="n">
-        <v>0.2213340807177036</v>
+        <v>0.464689221924535</v>
       </c>
       <c r="D374" t="n">
-        <v>0.2213340807177036</v>
+        <v>0.464689221924535</v>
       </c>
       <c r="E374" t="n">
-        <v>0.2213340807177036</v>
+        <v>0.464689221924535</v>
       </c>
     </row>
     <row r="375">
@@ -6751,16 +6751,16 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>0.1853313270365997</v>
+        <v>0.40870087973403</v>
       </c>
       <c r="C375" t="n">
-        <v>0.1853313270365997</v>
+        <v>0.40870087973403</v>
       </c>
       <c r="D375" t="n">
-        <v>0.1853313270365997</v>
+        <v>0.40870087973403</v>
       </c>
       <c r="E375" t="n">
-        <v>0.1853313270365997</v>
+        <v>0.40870087973403</v>
       </c>
     </row>
     <row r="376">
@@ -6768,16 +6768,16 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>0.1191883769848058</v>
+        <v>0.356240774951385</v>
       </c>
       <c r="C376" t="n">
-        <v>0.1191883769848058</v>
+        <v>0.356240774951385</v>
       </c>
       <c r="D376" t="n">
-        <v>0.1191883769848058</v>
+        <v>0.356240774951385</v>
       </c>
       <c r="E376" t="n">
-        <v>0.1191883769848058</v>
+        <v>0.356240774951385</v>
       </c>
     </row>
     <row r="377">
@@ -6785,16 +6785,16 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>0.05038504786116048</v>
+        <v>0.293408641914549</v>
       </c>
       <c r="C377" t="n">
-        <v>0.05038504786116048</v>
+        <v>0.293408641914549</v>
       </c>
       <c r="D377" t="n">
-        <v>0.05038504786116048</v>
+        <v>0.293408641914549</v>
       </c>
       <c r="E377" t="n">
-        <v>0.05038504786116048</v>
+        <v>0.293408641914549</v>
       </c>
     </row>
     <row r="378">
@@ -6802,16 +6802,16 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>0.00868312452693237</v>
+        <v>0.175444845022952</v>
       </c>
       <c r="C378" t="n">
-        <v>0.00868312452693237</v>
+        <v>0.175444845022952</v>
       </c>
       <c r="D378" t="n">
-        <v>0.00868312452693237</v>
+        <v>0.175444845022952</v>
       </c>
       <c r="E378" t="n">
-        <v>0.00868312452693237</v>
+        <v>0.175444845022952</v>
       </c>
     </row>
     <row r="379">
@@ -6819,16 +6819,16 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>0</v>
+        <v>0.08156732983563909</v>
       </c>
       <c r="C379" t="n">
-        <v>0</v>
+        <v>0.08156732983563909</v>
       </c>
       <c r="D379" t="n">
-        <v>0</v>
+        <v>0.08156732983563909</v>
       </c>
       <c r="E379" t="n">
-        <v>0</v>
+        <v>0.08156732983563909</v>
       </c>
     </row>
     <row r="380">
@@ -6836,16 +6836,16 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>0</v>
+        <v>0.0174073287914789</v>
       </c>
       <c r="C380" t="n">
-        <v>0</v>
+        <v>0.0174073287914789</v>
       </c>
       <c r="D380" t="n">
-        <v>0</v>
+        <v>0.0174073287914789</v>
       </c>
       <c r="E380" t="n">
-        <v>0</v>
+        <v>0.0174073287914789</v>
       </c>
     </row>
     <row r="381">
@@ -6853,16 +6853,16 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>0</v>
+        <v>0.00147030492786322</v>
       </c>
       <c r="C381" t="n">
-        <v>0</v>
+        <v>0.00147030492786322</v>
       </c>
       <c r="D381" t="n">
-        <v>0</v>
+        <v>0.00147030492786322</v>
       </c>
       <c r="E381" t="n">
-        <v>0</v>
+        <v>0.00147030492786322</v>
       </c>
     </row>
     <row r="382">
@@ -7006,16 +7006,16 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>0</v>
+        <v>0.00129315682197465</v>
       </c>
       <c r="C390" t="n">
-        <v>0</v>
+        <v>0.00129315682197465</v>
       </c>
       <c r="D390" t="n">
-        <v>0</v>
+        <v>0.00129315682197465</v>
       </c>
       <c r="E390" t="n">
-        <v>0</v>
+        <v>0.00129315682197465</v>
       </c>
     </row>
     <row r="391">
@@ -7023,16 +7023,16 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>0</v>
+        <v>0.0145964653640598</v>
       </c>
       <c r="C391" t="n">
-        <v>0</v>
+        <v>0.0145964653640598</v>
       </c>
       <c r="D391" t="n">
-        <v>0</v>
+        <v>0.0145964653640598</v>
       </c>
       <c r="E391" t="n">
-        <v>0</v>
+        <v>0.0145964653640598</v>
       </c>
     </row>
     <row r="392">
@@ -7040,16 +7040,16 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>0</v>
+        <v>0.07890289592178169</v>
       </c>
       <c r="C392" t="n">
-        <v>0</v>
+        <v>0.07890289592178169</v>
       </c>
       <c r="D392" t="n">
-        <v>0</v>
+        <v>0.07890289592178169</v>
       </c>
       <c r="E392" t="n">
-        <v>0</v>
+        <v>0.07890289592178169</v>
       </c>
     </row>
     <row r="393">
@@ -7057,16 +7057,16 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>0.01056064942351726</v>
+        <v>0.166339700619264</v>
       </c>
       <c r="C393" t="n">
-        <v>0.01056064942351726</v>
+        <v>0.166339700619264</v>
       </c>
       <c r="D393" t="n">
-        <v>0.01056064942351726</v>
+        <v>0.166339700619264</v>
       </c>
       <c r="E393" t="n">
-        <v>0.01056064942351726</v>
+        <v>0.166339700619264</v>
       </c>
     </row>
     <row r="394">
@@ -7074,16 +7074,16 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>0.05789896183675226</v>
+        <v>0.260465772554156</v>
       </c>
       <c r="C394" t="n">
-        <v>0.05789896183675226</v>
+        <v>0.260465772554156</v>
       </c>
       <c r="D394" t="n">
-        <v>0.05789896183675226</v>
+        <v>0.260465772554156</v>
       </c>
       <c r="E394" t="n">
-        <v>0.05789896183675226</v>
+        <v>0.260465772554156</v>
       </c>
     </row>
     <row r="395">
@@ -7091,16 +7091,16 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>0.1188612185455279</v>
+        <v>0.369606623363043</v>
       </c>
       <c r="C395" t="n">
-        <v>0.1188612185455279</v>
+        <v>0.369606623363043</v>
       </c>
       <c r="D395" t="n">
-        <v>0.1188612185455279</v>
+        <v>0.369606623363043</v>
       </c>
       <c r="E395" t="n">
-        <v>0.1188612185455279</v>
+        <v>0.369606623363043</v>
       </c>
     </row>
     <row r="396">
@@ -7108,16 +7108,16 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>0.1733892771394277</v>
+        <v>0.492380569807223</v>
       </c>
       <c r="C396" t="n">
-        <v>0.1733892771394277</v>
+        <v>0.492380569807223</v>
       </c>
       <c r="D396" t="n">
-        <v>0.1733892771394277</v>
+        <v>0.492380569807223</v>
       </c>
       <c r="E396" t="n">
-        <v>0.1733892771394277</v>
+        <v>0.492380569807223</v>
       </c>
     </row>
     <row r="397">
@@ -7125,16 +7125,16 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>0.2024898349881943</v>
+        <v>0.519045922012511</v>
       </c>
       <c r="C397" t="n">
-        <v>0.2024898349881943</v>
+        <v>0.519045922012511</v>
       </c>
       <c r="D397" t="n">
-        <v>0.2024898349881943</v>
+        <v>0.519045922012511</v>
       </c>
       <c r="E397" t="n">
-        <v>0.2024898349881943</v>
+        <v>0.519045922012511</v>
       </c>
     </row>
     <row r="398">
@@ -7142,16 +7142,16 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>0.2004311230336781</v>
+        <v>0.5354284880849151</v>
       </c>
       <c r="C398" t="n">
-        <v>0.2004311230336781</v>
+        <v>0.5354284880849151</v>
       </c>
       <c r="D398" t="n">
-        <v>0.2004311230336781</v>
+        <v>0.5354284880849151</v>
       </c>
       <c r="E398" t="n">
-        <v>0.2004311230336781</v>
+        <v>0.5354284880849151</v>
       </c>
     </row>
     <row r="399">
@@ -7159,16 +7159,16 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>0.1645636781712252</v>
+        <v>0.458296672995784</v>
       </c>
       <c r="C399" t="n">
-        <v>0.1645636781712252</v>
+        <v>0.458296672995784</v>
       </c>
       <c r="D399" t="n">
-        <v>0.1645636781712252</v>
+        <v>0.458296672995784</v>
       </c>
       <c r="E399" t="n">
-        <v>0.1645636781712252</v>
+        <v>0.458296672995784</v>
       </c>
     </row>
     <row r="400">
@@ -7176,16 +7176,16 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>0.1089284004557677</v>
+        <v>0.364451530189017</v>
       </c>
       <c r="C400" t="n">
-        <v>0.1089284004557677</v>
+        <v>0.364451530189017</v>
       </c>
       <c r="D400" t="n">
-        <v>0.1089284004557677</v>
+        <v>0.364451530189017</v>
       </c>
       <c r="E400" t="n">
-        <v>0.1089284004557677</v>
+        <v>0.364451530189017</v>
       </c>
     </row>
     <row r="401">
@@ -7193,16 +7193,16 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>0.03873921826787227</v>
+        <v>0.29375785255971</v>
       </c>
       <c r="C401" t="n">
-        <v>0.03873921826787227</v>
+        <v>0.29375785255971</v>
       </c>
       <c r="D401" t="n">
-        <v>0.03873921826787227</v>
+        <v>0.29375785255971</v>
       </c>
       <c r="E401" t="n">
-        <v>0.03873921826787227</v>
+        <v>0.29375785255971</v>
       </c>
     </row>
     <row r="402">
@@ -7210,16 +7210,16 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>0.007082116968906088</v>
+        <v>0.207445071516781</v>
       </c>
       <c r="C402" t="n">
-        <v>0.007082116968906088</v>
+        <v>0.207445071516781</v>
       </c>
       <c r="D402" t="n">
-        <v>0.007082116968906088</v>
+        <v>0.207445071516781</v>
       </c>
       <c r="E402" t="n">
-        <v>0.007082116968906088</v>
+        <v>0.207445071516781</v>
       </c>
     </row>
     <row r="403">
@@ -7227,16 +7227,16 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>0</v>
+        <v>0.07563286306036029</v>
       </c>
       <c r="C403" t="n">
-        <v>0</v>
+        <v>0.07563286306036029</v>
       </c>
       <c r="D403" t="n">
-        <v>0</v>
+        <v>0.07563286306036029</v>
       </c>
       <c r="E403" t="n">
-        <v>0</v>
+        <v>0.07563286306036029</v>
       </c>
     </row>
     <row r="404">
@@ -7244,16 +7244,16 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>0</v>
+        <v>0.0205380145663398</v>
       </c>
       <c r="C404" t="n">
-        <v>0</v>
+        <v>0.0205380145663398</v>
       </c>
       <c r="D404" t="n">
-        <v>0</v>
+        <v>0.0205380145663398</v>
       </c>
       <c r="E404" t="n">
-        <v>0</v>
+        <v>0.0205380145663398</v>
       </c>
     </row>
     <row r="405">
@@ -7261,16 +7261,16 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>0</v>
+        <v>0.00172106507434805</v>
       </c>
       <c r="C405" t="n">
-        <v>0</v>
+        <v>0.00172106507434805</v>
       </c>
       <c r="D405" t="n">
-        <v>0</v>
+        <v>0.00172106507434805</v>
       </c>
       <c r="E405" t="n">
-        <v>0</v>
+        <v>0.00172106507434805</v>
       </c>
     </row>
     <row r="406">
@@ -7414,16 +7414,16 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>0</v>
+        <v>0.00184296356553834</v>
       </c>
       <c r="C414" t="n">
-        <v>0</v>
+        <v>0.00184296356553834</v>
       </c>
       <c r="D414" t="n">
-        <v>0</v>
+        <v>0.00184296356553834</v>
       </c>
       <c r="E414" t="n">
-        <v>0</v>
+        <v>0.00184296356553834</v>
       </c>
     </row>
     <row r="415">
@@ -7431,16 +7431,16 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>0</v>
+        <v>0.0132909248387152</v>
       </c>
       <c r="C415" t="n">
-        <v>0</v>
+        <v>0.0132909248387152</v>
       </c>
       <c r="D415" t="n">
-        <v>0</v>
+        <v>0.0132909248387152</v>
       </c>
       <c r="E415" t="n">
-        <v>0</v>
+        <v>0.0132909248387152</v>
       </c>
     </row>
     <row r="416">
@@ -7448,16 +7448,16 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>0</v>
+        <v>0.0709070375923959</v>
       </c>
       <c r="C416" t="n">
-        <v>0</v>
+        <v>0.0709070375923959</v>
       </c>
       <c r="D416" t="n">
-        <v>0</v>
+        <v>0.0709070375923959</v>
       </c>
       <c r="E416" t="n">
-        <v>0</v>
+        <v>0.0709070375923959</v>
       </c>
     </row>
     <row r="417">
@@ -7465,16 +7465,16 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>0.01008935345669247</v>
+        <v>0.198160156935658</v>
       </c>
       <c r="C417" t="n">
-        <v>0.01008935345669247</v>
+        <v>0.198160156935658</v>
       </c>
       <c r="D417" t="n">
-        <v>0.01008935345669247</v>
+        <v>0.198160156935658</v>
       </c>
       <c r="E417" t="n">
-        <v>0.01008935345669247</v>
+        <v>0.198160156935658</v>
       </c>
     </row>
     <row r="418">
@@ -7482,16 +7482,16 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>0.05638507749646421</v>
+        <v>0.287896623414675</v>
       </c>
       <c r="C418" t="n">
-        <v>0.05638507749646421</v>
+        <v>0.287896623414675</v>
       </c>
       <c r="D418" t="n">
-        <v>0.05638507749646421</v>
+        <v>0.287896623414675</v>
       </c>
       <c r="E418" t="n">
-        <v>0.05638507749646421</v>
+        <v>0.287896623414675</v>
       </c>
     </row>
     <row r="419">
@@ -7499,16 +7499,16 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>0.1219936032188461</v>
+        <v>0.374783753746159</v>
       </c>
       <c r="C419" t="n">
-        <v>0.1219936032188461</v>
+        <v>0.374783753746159</v>
       </c>
       <c r="D419" t="n">
-        <v>0.1219936032188461</v>
+        <v>0.374783753746159</v>
       </c>
       <c r="E419" t="n">
-        <v>0.1219936032188461</v>
+        <v>0.374783753746159</v>
       </c>
     </row>
     <row r="420">
@@ -7516,16 +7516,16 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>0.1663895846808326</v>
+        <v>0.45509514035768</v>
       </c>
       <c r="C420" t="n">
-        <v>0.1663895846808326</v>
+        <v>0.45509514035768</v>
       </c>
       <c r="D420" t="n">
-        <v>0.1663895846808326</v>
+        <v>0.45509514035768</v>
       </c>
       <c r="E420" t="n">
-        <v>0.1663895846808326</v>
+        <v>0.45509514035768</v>
       </c>
     </row>
     <row r="421">
@@ -7533,16 +7533,16 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>0.1937797878766121</v>
+        <v>0.475778842084278</v>
       </c>
       <c r="C421" t="n">
-        <v>0.1937797878766121</v>
+        <v>0.475778842084278</v>
       </c>
       <c r="D421" t="n">
-        <v>0.1937797878766121</v>
+        <v>0.475778842084278</v>
       </c>
       <c r="E421" t="n">
-        <v>0.1937797878766121</v>
+        <v>0.475778842084278</v>
       </c>
     </row>
     <row r="422">
@@ -7550,16 +7550,16 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>0.1941676012333718</v>
+        <v>0.471892043582787</v>
       </c>
       <c r="C422" t="n">
-        <v>0.1941676012333718</v>
+        <v>0.471892043582787</v>
       </c>
       <c r="D422" t="n">
-        <v>0.1941676012333718</v>
+        <v>0.471892043582787</v>
       </c>
       <c r="E422" t="n">
-        <v>0.1941676012333718</v>
+        <v>0.471892043582787</v>
       </c>
     </row>
     <row r="423">
@@ -7567,16 +7567,16 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>0.1585635932798723</v>
+        <v>0.40344088782779</v>
       </c>
       <c r="C423" t="n">
-        <v>0.1585635932798723</v>
+        <v>0.40344088782779</v>
       </c>
       <c r="D423" t="n">
-        <v>0.1585635932798723</v>
+        <v>0.40344088782779</v>
       </c>
       <c r="E423" t="n">
-        <v>0.1585635932798723</v>
+        <v>0.40344088782779</v>
       </c>
     </row>
     <row r="424">
@@ -7584,16 +7584,16 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>0.1092500966801</v>
+        <v>0.330008030007633</v>
       </c>
       <c r="C424" t="n">
-        <v>0.1092500966801</v>
+        <v>0.330008030007633</v>
       </c>
       <c r="D424" t="n">
-        <v>0.1092500966801</v>
+        <v>0.330008030007633</v>
       </c>
       <c r="E424" t="n">
-        <v>0.1092500966801</v>
+        <v>0.330008030007633</v>
       </c>
     </row>
     <row r="425">
@@ -7601,16 +7601,16 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>0.03713291338484376</v>
+        <v>0.290914036453425</v>
       </c>
       <c r="C425" t="n">
-        <v>0.03713291338484376</v>
+        <v>0.290914036453425</v>
       </c>
       <c r="D425" t="n">
-        <v>0.03713291338484376</v>
+        <v>0.290914036453425</v>
       </c>
       <c r="E425" t="n">
-        <v>0.03713291338484376</v>
+        <v>0.290914036453425</v>
       </c>
     </row>
     <row r="426">
@@ -7618,16 +7618,16 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>0.005081007048938487</v>
+        <v>0.177153951540053</v>
       </c>
       <c r="C426" t="n">
-        <v>0.005081007048938487</v>
+        <v>0.177153951540053</v>
       </c>
       <c r="D426" t="n">
-        <v>0.005081007048938487</v>
+        <v>0.177153951540053</v>
       </c>
       <c r="E426" t="n">
-        <v>0.005081007048938487</v>
+        <v>0.177153951540053</v>
       </c>
     </row>
     <row r="427">
@@ -7635,16 +7635,16 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>0</v>
+        <v>0.0774330738880853</v>
       </c>
       <c r="C427" t="n">
-        <v>0</v>
+        <v>0.0774330738880853</v>
       </c>
       <c r="D427" t="n">
-        <v>0</v>
+        <v>0.0774330738880853</v>
       </c>
       <c r="E427" t="n">
-        <v>0</v>
+        <v>0.0774330738880853</v>
       </c>
     </row>
     <row r="428">
@@ -7652,16 +7652,16 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>0</v>
+        <v>0.0158318920430671</v>
       </c>
       <c r="C428" t="n">
-        <v>0</v>
+        <v>0.0158318920430671</v>
       </c>
       <c r="D428" t="n">
-        <v>0</v>
+        <v>0.0158318920430671</v>
       </c>
       <c r="E428" t="n">
-        <v>0</v>
+        <v>0.0158318920430671</v>
       </c>
     </row>
     <row r="429">
@@ -7669,16 +7669,16 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>0</v>
+        <v>0.00109724748208773</v>
       </c>
       <c r="C429" t="n">
-        <v>0</v>
+        <v>0.00109724748208773</v>
       </c>
       <c r="D429" t="n">
-        <v>0</v>
+        <v>0.00109724748208773</v>
       </c>
       <c r="E429" t="n">
-        <v>0</v>
+        <v>0.00109724748208773</v>
       </c>
     </row>
     <row r="430">
@@ -7822,16 +7822,16 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>0</v>
+        <v>0.00360590412362666</v>
       </c>
       <c r="C438" t="n">
-        <v>0</v>
+        <v>0.00360590412362666</v>
       </c>
       <c r="D438" t="n">
-        <v>0</v>
+        <v>0.00360590412362666</v>
       </c>
       <c r="E438" t="n">
-        <v>0</v>
+        <v>0.00360590412362666</v>
       </c>
     </row>
     <row r="439">
@@ -7839,16 +7839,16 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>0</v>
+        <v>0.0261656803254457</v>
       </c>
       <c r="C439" t="n">
-        <v>0</v>
+        <v>0.0261656803254457</v>
       </c>
       <c r="D439" t="n">
-        <v>0</v>
+        <v>0.0261656803254457</v>
       </c>
       <c r="E439" t="n">
-        <v>0</v>
+        <v>0.0261656803254457</v>
       </c>
     </row>
     <row r="440">
@@ -7856,16 +7856,16 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>0.0002378686822533458</v>
+        <v>0.0954707698550476</v>
       </c>
       <c r="C440" t="n">
-        <v>0.0002378686822533458</v>
+        <v>0.0954707698550476</v>
       </c>
       <c r="D440" t="n">
-        <v>0.0002378686822533458</v>
+        <v>0.0954707698550476</v>
       </c>
       <c r="E440" t="n">
-        <v>0.0002378686822533458</v>
+        <v>0.0954707698550476</v>
       </c>
     </row>
     <row r="441">
@@ -7873,16 +7873,16 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>0.0106253092663653</v>
+        <v>0.200095994736396</v>
       </c>
       <c r="C441" t="n">
-        <v>0.0106253092663653</v>
+        <v>0.200095994736396</v>
       </c>
       <c r="D441" t="n">
-        <v>0.0106253092663653</v>
+        <v>0.200095994736396</v>
       </c>
       <c r="E441" t="n">
-        <v>0.0106253092663653</v>
+        <v>0.200095994736396</v>
       </c>
     </row>
     <row r="442">
@@ -7890,16 +7890,16 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>0.0580593016878798</v>
+        <v>0.328513832698492</v>
       </c>
       <c r="C442" t="n">
-        <v>0.0580593016878798</v>
+        <v>0.328513832698492</v>
       </c>
       <c r="D442" t="n">
-        <v>0.0580593016878798</v>
+        <v>0.328513832698492</v>
       </c>
       <c r="E442" t="n">
-        <v>0.0580593016878798</v>
+        <v>0.328513832698492</v>
       </c>
     </row>
     <row r="443">
@@ -7907,16 +7907,16 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>0.1197640125409134</v>
+        <v>0.40585440467362</v>
       </c>
       <c r="C443" t="n">
-        <v>0.1197640125409134</v>
+        <v>0.40585440467362</v>
       </c>
       <c r="D443" t="n">
-        <v>0.1197640125409134</v>
+        <v>0.40585440467362</v>
       </c>
       <c r="E443" t="n">
-        <v>0.1197640125409134</v>
+        <v>0.40585440467362</v>
       </c>
     </row>
     <row r="444">
@@ -7924,16 +7924,16 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>0.1735022289731918</v>
+        <v>0.405569294913339</v>
       </c>
       <c r="C444" t="n">
-        <v>0.1735022289731918</v>
+        <v>0.405569294913339</v>
       </c>
       <c r="D444" t="n">
-        <v>0.1735022289731918</v>
+        <v>0.405569294913339</v>
       </c>
       <c r="E444" t="n">
-        <v>0.1735022289731918</v>
+        <v>0.405569294913339</v>
       </c>
     </row>
     <row r="445">
@@ -7941,16 +7941,16 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>0.2186440268495383</v>
+        <v>0.392421897835199</v>
       </c>
       <c r="C445" t="n">
-        <v>0.2186440268495383</v>
+        <v>0.392421897835199</v>
       </c>
       <c r="D445" t="n">
-        <v>0.2186440268495383</v>
+        <v>0.392421897835199</v>
       </c>
       <c r="E445" t="n">
-        <v>0.2186440268495383</v>
+        <v>0.392421897835199</v>
       </c>
     </row>
     <row r="446">
@@ -7958,16 +7958,16 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>0.2285926482711702</v>
+        <v>0.386846571947067</v>
       </c>
       <c r="C446" t="n">
-        <v>0.2285926482711702</v>
+        <v>0.386846571947067</v>
       </c>
       <c r="D446" t="n">
-        <v>0.2285926482711702</v>
+        <v>0.386846571947067</v>
       </c>
       <c r="E446" t="n">
-        <v>0.2285926482711702</v>
+        <v>0.386846571947067</v>
       </c>
     </row>
     <row r="447">
@@ -7975,16 +7975,16 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>0.2026741379745581</v>
+        <v>0.337697163123434</v>
       </c>
       <c r="C447" t="n">
-        <v>0.2026741379745581</v>
+        <v>0.337697163123434</v>
       </c>
       <c r="D447" t="n">
-        <v>0.2026741379745581</v>
+        <v>0.337697163123434</v>
       </c>
       <c r="E447" t="n">
-        <v>0.2026741379745581</v>
+        <v>0.337697163123434</v>
       </c>
     </row>
     <row r="448">
@@ -7992,16 +7992,16 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>0.1133027247364974</v>
+        <v>0.365705355626256</v>
       </c>
       <c r="C448" t="n">
-        <v>0.1133027247364974</v>
+        <v>0.365705355626256</v>
       </c>
       <c r="D448" t="n">
-        <v>0.1133027247364974</v>
+        <v>0.365705355626256</v>
       </c>
       <c r="E448" t="n">
-        <v>0.1133027247364974</v>
+        <v>0.365705355626256</v>
       </c>
     </row>
     <row r="449">
@@ -8009,16 +8009,16 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>0.04317806262566545</v>
+        <v>0.292624740382948</v>
       </c>
       <c r="C449" t="n">
-        <v>0.04317806262566545</v>
+        <v>0.292624740382948</v>
       </c>
       <c r="D449" t="n">
-        <v>0.04317806262566545</v>
+        <v>0.292624740382948</v>
       </c>
       <c r="E449" t="n">
-        <v>0.04317806262566545</v>
+        <v>0.292624740382948</v>
       </c>
     </row>
     <row r="450">
@@ -8026,16 +8026,16 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>0.007648659318445304</v>
+        <v>0.180057836644066</v>
       </c>
       <c r="C450" t="n">
-        <v>0.007648659318445304</v>
+        <v>0.180057836644066</v>
       </c>
       <c r="D450" t="n">
-        <v>0.007648659318445304</v>
+        <v>0.180057836644066</v>
       </c>
       <c r="E450" t="n">
-        <v>0.007648659318445304</v>
+        <v>0.180057836644066</v>
       </c>
     </row>
     <row r="451">
@@ -8043,16 +8043,16 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>0</v>
+        <v>0.07602919530868291</v>
       </c>
       <c r="C451" t="n">
-        <v>0</v>
+        <v>0.07602919530868291</v>
       </c>
       <c r="D451" t="n">
-        <v>0</v>
+        <v>0.07602919530868291</v>
       </c>
       <c r="E451" t="n">
-        <v>0</v>
+        <v>0.07602919530868291</v>
       </c>
     </row>
     <row r="452">
@@ -8060,16 +8060,16 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>0</v>
+        <v>0.0194907533718034</v>
       </c>
       <c r="C452" t="n">
-        <v>0</v>
+        <v>0.0194907533718034</v>
       </c>
       <c r="D452" t="n">
-        <v>0</v>
+        <v>0.0194907533718034</v>
       </c>
       <c r="E452" t="n">
-        <v>0</v>
+        <v>0.0194907533718034</v>
       </c>
     </row>
     <row r="453">
@@ -8077,16 +8077,16 @@
         <v>451</v>
       </c>
       <c r="B453" t="n">
-        <v>0</v>
+        <v>0.00167076668754387</v>
       </c>
       <c r="C453" t="n">
-        <v>0</v>
+        <v>0.00167076668754387</v>
       </c>
       <c r="D453" t="n">
-        <v>0</v>
+        <v>0.00167076668754387</v>
       </c>
       <c r="E453" t="n">
-        <v>0</v>
+        <v>0.00167076668754387</v>
       </c>
     </row>
     <row r="454">
@@ -8230,16 +8230,16 @@
         <v>460</v>
       </c>
       <c r="B462" t="n">
-        <v>0</v>
+        <v>0.00231269745063947</v>
       </c>
       <c r="C462" t="n">
-        <v>0</v>
+        <v>0.00231269745063947</v>
       </c>
       <c r="D462" t="n">
-        <v>0</v>
+        <v>0.00231269745063947</v>
       </c>
       <c r="E462" t="n">
-        <v>0</v>
+        <v>0.00231269745063947</v>
       </c>
     </row>
     <row r="463">
@@ -8247,16 +8247,16 @@
         <v>461</v>
       </c>
       <c r="B463" t="n">
-        <v>0</v>
+        <v>0.0185862633493272</v>
       </c>
       <c r="C463" t="n">
-        <v>0</v>
+        <v>0.0185862633493272</v>
       </c>
       <c r="D463" t="n">
-        <v>0</v>
+        <v>0.0185862633493272</v>
       </c>
       <c r="E463" t="n">
-        <v>0</v>
+        <v>0.0185862633493272</v>
       </c>
     </row>
     <row r="464">
@@ -8264,16 +8264,16 @@
         <v>462</v>
       </c>
       <c r="B464" t="n">
-        <v>0.0004623132804083106</v>
+        <v>0.0728221059538062</v>
       </c>
       <c r="C464" t="n">
-        <v>0.0004623132804083106</v>
+        <v>0.0728221059538062</v>
       </c>
       <c r="D464" t="n">
-        <v>0.0004623132804083106</v>
+        <v>0.0728221059538062</v>
       </c>
       <c r="E464" t="n">
-        <v>0.0004623132804083106</v>
+        <v>0.0728221059538062</v>
       </c>
     </row>
     <row r="465">
@@ -8281,16 +8281,16 @@
         <v>463</v>
       </c>
       <c r="B465" t="n">
-        <v>0.01336074537064728</v>
+        <v>0.186616186622148</v>
       </c>
       <c r="C465" t="n">
-        <v>0.01336074537064728</v>
+        <v>0.186616186622148</v>
       </c>
       <c r="D465" t="n">
-        <v>0.01336074537064728</v>
+        <v>0.186616186622148</v>
       </c>
       <c r="E465" t="n">
-        <v>0.01336074537064728</v>
+        <v>0.186616186622148</v>
       </c>
     </row>
     <row r="466">
@@ -8298,16 +8298,16 @@
         <v>464</v>
       </c>
       <c r="B466" t="n">
-        <v>0.05714463576712398</v>
+        <v>0.348249707525483</v>
       </c>
       <c r="C466" t="n">
-        <v>0.05714463576712398</v>
+        <v>0.348249707525483</v>
       </c>
       <c r="D466" t="n">
-        <v>0.05714463576712398</v>
+        <v>0.348249707525483</v>
       </c>
       <c r="E466" t="n">
-        <v>0.05714463576712398</v>
+        <v>0.348249707525483</v>
       </c>
     </row>
     <row r="467">
@@ -8315,16 +8315,16 @@
         <v>465</v>
       </c>
       <c r="B467" t="n">
-        <v>0.1177320313346918</v>
+        <v>0.48920511117351</v>
       </c>
       <c r="C467" t="n">
-        <v>0.1177320313346918</v>
+        <v>0.48920511117351</v>
       </c>
       <c r="D467" t="n">
-        <v>0.1177320313346918</v>
+        <v>0.48920511117351</v>
       </c>
       <c r="E467" t="n">
-        <v>0.1177320313346918</v>
+        <v>0.48920511117351</v>
       </c>
     </row>
     <row r="468">
@@ -8332,16 +8332,16 @@
         <v>466</v>
       </c>
       <c r="B468" t="n">
-        <v>0.1507284978604303</v>
+        <v>0.553669163784294</v>
       </c>
       <c r="C468" t="n">
-        <v>0.1507284978604303</v>
+        <v>0.553669163784294</v>
       </c>
       <c r="D468" t="n">
-        <v>0.1507284978604303</v>
+        <v>0.553669163784294</v>
       </c>
       <c r="E468" t="n">
-        <v>0.1507284978604303</v>
+        <v>0.553669163784294</v>
       </c>
     </row>
     <row r="469">
@@ -8349,16 +8349,16 @@
         <v>467</v>
       </c>
       <c r="B469" t="n">
-        <v>0.1829927319746873</v>
+        <v>0.544440864261077</v>
       </c>
       <c r="C469" t="n">
-        <v>0.1829927319746873</v>
+        <v>0.544440864261077</v>
       </c>
       <c r="D469" t="n">
-        <v>0.1829927319746873</v>
+        <v>0.544440864261077</v>
       </c>
       <c r="E469" t="n">
-        <v>0.1829927319746873</v>
+        <v>0.544440864261077</v>
       </c>
     </row>
     <row r="470">
@@ -8366,16 +8366,16 @@
         <v>468</v>
       </c>
       <c r="B470" t="n">
-        <v>0.1916448058982202</v>
+        <v>0.57453752580161</v>
       </c>
       <c r="C470" t="n">
-        <v>0.1916448058982202</v>
+        <v>0.57453752580161</v>
       </c>
       <c r="D470" t="n">
-        <v>0.1916448058982202</v>
+        <v>0.57453752580161</v>
       </c>
       <c r="E470" t="n">
-        <v>0.1916448058982202</v>
+        <v>0.57453752580161</v>
       </c>
     </row>
     <row r="471">
@@ -8383,16 +8383,16 @@
         <v>469</v>
       </c>
       <c r="B471" t="n">
-        <v>0.1641159734911797</v>
+        <v>0.542507872266789</v>
       </c>
       <c r="C471" t="n">
-        <v>0.1641159734911797</v>
+        <v>0.542507872266789</v>
       </c>
       <c r="D471" t="n">
-        <v>0.1641159734911797</v>
+        <v>0.542507872266789</v>
       </c>
       <c r="E471" t="n">
-        <v>0.1641159734911797</v>
+        <v>0.542507872266789</v>
       </c>
     </row>
     <row r="472">
@@ -8400,16 +8400,16 @@
         <v>470</v>
       </c>
       <c r="B472" t="n">
-        <v>0.1073052190081237</v>
+        <v>0.441129773295477</v>
       </c>
       <c r="C472" t="n">
-        <v>0.1073052190081237</v>
+        <v>0.441129773295477</v>
       </c>
       <c r="D472" t="n">
-        <v>0.1073052190081237</v>
+        <v>0.441129773295477</v>
       </c>
       <c r="E472" t="n">
-        <v>0.1073052190081237</v>
+        <v>0.441129773295477</v>
       </c>
     </row>
     <row r="473">
@@ -8417,16 +8417,16 @@
         <v>471</v>
       </c>
       <c r="B473" t="n">
-        <v>0.04255985740555494</v>
+        <v>0.306660599105149</v>
       </c>
       <c r="C473" t="n">
-        <v>0.04255985740555494</v>
+        <v>0.306660599105149</v>
       </c>
       <c r="D473" t="n">
-        <v>0.04255985740555494</v>
+        <v>0.306660599105149</v>
       </c>
       <c r="E473" t="n">
-        <v>0.04255985740555494</v>
+        <v>0.306660599105149</v>
       </c>
     </row>
     <row r="474">
@@ -8434,16 +8434,16 @@
         <v>472</v>
       </c>
       <c r="B474" t="n">
-        <v>0.01160938563610699</v>
+        <v>0.207874858418828</v>
       </c>
       <c r="C474" t="n">
-        <v>0.01160938563610699</v>
+        <v>0.207874858418828</v>
       </c>
       <c r="D474" t="n">
-        <v>0.01160938563610699</v>
+        <v>0.207874858418828</v>
       </c>
       <c r="E474" t="n">
-        <v>0.01160938563610699</v>
+        <v>0.207874858418828</v>
       </c>
     </row>
     <row r="475">
@@ -8451,16 +8451,16 @@
         <v>473</v>
       </c>
       <c r="B475" t="n">
-        <v>0.0004236725475918126</v>
+        <v>0.0809364274552386</v>
       </c>
       <c r="C475" t="n">
-        <v>0.0004236725475918126</v>
+        <v>0.0809364274552386</v>
       </c>
       <c r="D475" t="n">
-        <v>0.0004236725475918126</v>
+        <v>0.0809364274552386</v>
       </c>
       <c r="E475" t="n">
-        <v>0.0004236725475918126</v>
+        <v>0.0809364274552386</v>
       </c>
     </row>
     <row r="476">
@@ -8468,16 +8468,16 @@
         <v>474</v>
       </c>
       <c r="B476" t="n">
-        <v>0</v>
+        <v>0.0205022607429317</v>
       </c>
       <c r="C476" t="n">
-        <v>0</v>
+        <v>0.0205022607429317</v>
       </c>
       <c r="D476" t="n">
-        <v>0</v>
+        <v>0.0205022607429317</v>
       </c>
       <c r="E476" t="n">
-        <v>0</v>
+        <v>0.0205022607429317</v>
       </c>
     </row>
     <row r="477">
@@ -8485,16 +8485,16 @@
         <v>475</v>
       </c>
       <c r="B477" t="n">
-        <v>0</v>
+        <v>0.00169916322655934</v>
       </c>
       <c r="C477" t="n">
-        <v>0</v>
+        <v>0.00169916322655934</v>
       </c>
       <c r="D477" t="n">
-        <v>0</v>
+        <v>0.00169916322655934</v>
       </c>
       <c r="E477" t="n">
-        <v>0</v>
+        <v>0.00169916322655934</v>
       </c>
     </row>
     <row r="478">
@@ -8638,16 +8638,16 @@
         <v>484</v>
       </c>
       <c r="B486" t="n">
-        <v>0</v>
+        <v>0.00134828883893949</v>
       </c>
       <c r="C486" t="n">
-        <v>0</v>
+        <v>0.00134828883893949</v>
       </c>
       <c r="D486" t="n">
-        <v>0</v>
+        <v>0.00134828883893949</v>
       </c>
       <c r="E486" t="n">
-        <v>0</v>
+        <v>0.00134828883893949</v>
       </c>
     </row>
     <row r="487">
@@ -8655,16 +8655,16 @@
         <v>485</v>
       </c>
       <c r="B487" t="n">
-        <v>0</v>
+        <v>0.0112807563185239</v>
       </c>
       <c r="C487" t="n">
-        <v>0</v>
+        <v>0.0112807563185239</v>
       </c>
       <c r="D487" t="n">
-        <v>0</v>
+        <v>0.0112807563185239</v>
       </c>
       <c r="E487" t="n">
-        <v>0</v>
+        <v>0.0112807563185239</v>
       </c>
     </row>
     <row r="488">
@@ -8672,16 +8672,16 @@
         <v>486</v>
       </c>
       <c r="B488" t="n">
-        <v>0.0005258829920364743</v>
+        <v>0.0588292133640398</v>
       </c>
       <c r="C488" t="n">
-        <v>0.0005258829920364743</v>
+        <v>0.0588292133640398</v>
       </c>
       <c r="D488" t="n">
-        <v>0.0005258829920364743</v>
+        <v>0.0588292133640398</v>
       </c>
       <c r="E488" t="n">
-        <v>0.0005258829920364743</v>
+        <v>0.0588292133640398</v>
       </c>
     </row>
     <row r="489">
@@ -8689,16 +8689,16 @@
         <v>487</v>
       </c>
       <c r="B489" t="n">
-        <v>0.009983642614185858</v>
+        <v>0.189750392445206</v>
       </c>
       <c r="C489" t="n">
-        <v>0.009983642614185858</v>
+        <v>0.189750392445206</v>
       </c>
       <c r="D489" t="n">
-        <v>0.009983642614185858</v>
+        <v>0.189750392445206</v>
       </c>
       <c r="E489" t="n">
-        <v>0.009983642614185858</v>
+        <v>0.189750392445206</v>
       </c>
     </row>
     <row r="490">
@@ -8706,16 +8706,16 @@
         <v>488</v>
       </c>
       <c r="B490" t="n">
-        <v>0.04897072126659269</v>
+        <v>0.326652049296372</v>
       </c>
       <c r="C490" t="n">
-        <v>0.04897072126659269</v>
+        <v>0.326652049296372</v>
       </c>
       <c r="D490" t="n">
-        <v>0.04897072126659269</v>
+        <v>0.326652049296372</v>
       </c>
       <c r="E490" t="n">
-        <v>0.04897072126659269</v>
+        <v>0.326652049296372</v>
       </c>
     </row>
     <row r="491">
@@ -8723,16 +8723,16 @@
         <v>489</v>
       </c>
       <c r="B491" t="n">
-        <v>0.1125900719065219</v>
+        <v>0.44830392869765</v>
       </c>
       <c r="C491" t="n">
-        <v>0.1125900719065219</v>
+        <v>0.44830392869765</v>
       </c>
       <c r="D491" t="n">
-        <v>0.1125900719065219</v>
+        <v>0.44830392869765</v>
       </c>
       <c r="E491" t="n">
-        <v>0.1125900719065219</v>
+        <v>0.44830392869765</v>
       </c>
     </row>
     <row r="492">
@@ -8740,16 +8740,16 @@
         <v>490</v>
       </c>
       <c r="B492" t="n">
-        <v>0.1721241210214292</v>
+        <v>0.452055734053022</v>
       </c>
       <c r="C492" t="n">
-        <v>0.1721241210214292</v>
+        <v>0.452055734053022</v>
       </c>
       <c r="D492" t="n">
-        <v>0.1721241210214292</v>
+        <v>0.452055734053022</v>
       </c>
       <c r="E492" t="n">
-        <v>0.1721241210214292</v>
+        <v>0.452055734053022</v>
       </c>
     </row>
     <row r="493">
@@ -8757,16 +8757,16 @@
         <v>491</v>
       </c>
       <c r="B493" t="n">
-        <v>0.2050873961905718</v>
+        <v>0.426573477906984</v>
       </c>
       <c r="C493" t="n">
-        <v>0.2050873961905718</v>
+        <v>0.426573477906984</v>
       </c>
       <c r="D493" t="n">
-        <v>0.2050873961905718</v>
+        <v>0.426573477906984</v>
       </c>
       <c r="E493" t="n">
-        <v>0.2050873961905718</v>
+        <v>0.426573477906984</v>
       </c>
     </row>
     <row r="494">
@@ -8774,16 +8774,16 @@
         <v>492</v>
       </c>
       <c r="B494" t="n">
-        <v>0.1902634878772448</v>
+        <v>0.434061251634539</v>
       </c>
       <c r="C494" t="n">
-        <v>0.1902634878772448</v>
+        <v>0.434061251634539</v>
       </c>
       <c r="D494" t="n">
-        <v>0.1902634878772448</v>
+        <v>0.434061251634539</v>
       </c>
       <c r="E494" t="n">
-        <v>0.1902634878772448</v>
+        <v>0.434061251634539</v>
       </c>
     </row>
     <row r="495">
@@ -8791,16 +8791,16 @@
         <v>493</v>
       </c>
       <c r="B495" t="n">
-        <v>0.1166169955254634</v>
+        <v>0.452981686506294</v>
       </c>
       <c r="C495" t="n">
-        <v>0.1166169955254634</v>
+        <v>0.452981686506294</v>
       </c>
       <c r="D495" t="n">
-        <v>0.1166169955254634</v>
+        <v>0.452981686506294</v>
       </c>
       <c r="E495" t="n">
-        <v>0.1166169955254634</v>
+        <v>0.452981686506294</v>
       </c>
     </row>
     <row r="496">
@@ -8808,16 +8808,16 @@
         <v>494</v>
       </c>
       <c r="B496" t="n">
-        <v>0.0719736826097187</v>
+        <v>0.394690959559589</v>
       </c>
       <c r="C496" t="n">
-        <v>0.0719736826097187</v>
+        <v>0.394690959559589</v>
       </c>
       <c r="D496" t="n">
-        <v>0.0719736826097187</v>
+        <v>0.394690959559589</v>
       </c>
       <c r="E496" t="n">
-        <v>0.0719736826097187</v>
+        <v>0.394690959559589</v>
       </c>
     </row>
     <row r="497">
@@ -8825,16 +8825,16 @@
         <v>495</v>
       </c>
       <c r="B497" t="n">
-        <v>0.02885340142419114</v>
+        <v>0.306290760557063</v>
       </c>
       <c r="C497" t="n">
-        <v>0.02885340142419114</v>
+        <v>0.306290760557063</v>
       </c>
       <c r="D497" t="n">
-        <v>0.02885340142419114</v>
+        <v>0.306290760557063</v>
       </c>
       <c r="E497" t="n">
-        <v>0.02885340142419114</v>
+        <v>0.306290760557063</v>
       </c>
     </row>
     <row r="498">
@@ -8842,16 +8842,16 @@
         <v>496</v>
       </c>
       <c r="B498" t="n">
-        <v>0.006186432635922607</v>
+        <v>0.194951868326229</v>
       </c>
       <c r="C498" t="n">
-        <v>0.006186432635922607</v>
+        <v>0.194951868326229</v>
       </c>
       <c r="D498" t="n">
-        <v>0.006186432635922607</v>
+        <v>0.194951868326229</v>
       </c>
       <c r="E498" t="n">
-        <v>0.006186432635922607</v>
+        <v>0.194951868326229</v>
       </c>
     </row>
     <row r="499">
@@ -8859,16 +8859,16 @@
         <v>497</v>
       </c>
       <c r="B499" t="n">
-        <v>0.0001243702150409405</v>
+        <v>0.0797474663532072</v>
       </c>
       <c r="C499" t="n">
-        <v>0.0001243702150409405</v>
+        <v>0.0797474663532072</v>
       </c>
       <c r="D499" t="n">
-        <v>0.0001243702150409405</v>
+        <v>0.0797474663532072</v>
       </c>
       <c r="E499" t="n">
-        <v>0.0001243702150409405</v>
+        <v>0.0797474663532072</v>
       </c>
     </row>
     <row r="500">
@@ -8876,16 +8876,16 @@
         <v>498</v>
       </c>
       <c r="B500" t="n">
-        <v>0</v>
+        <v>0.0144185433714968</v>
       </c>
       <c r="C500" t="n">
-        <v>0</v>
+        <v>0.0144185433714968</v>
       </c>
       <c r="D500" t="n">
-        <v>0</v>
+        <v>0.0144185433714968</v>
       </c>
       <c r="E500" t="n">
-        <v>0</v>
+        <v>0.0144185433714968</v>
       </c>
     </row>
     <row r="501">
@@ -8893,16 +8893,16 @@
         <v>499</v>
       </c>
       <c r="B501" t="n">
-        <v>0</v>
+        <v>0.000477125894553687</v>
       </c>
       <c r="C501" t="n">
-        <v>0</v>
+        <v>0.000477125894553687</v>
       </c>
       <c r="D501" t="n">
-        <v>0</v>
+        <v>0.000477125894553687</v>
       </c>
       <c r="E501" t="n">
-        <v>0</v>
+        <v>0.000477125894553687</v>
       </c>
     </row>
     <row r="502">
